--- a/Udacity Schedule Maker.xlsx
+++ b/Udacity Schedule Maker.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1594,7 +1593,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1738,16 +1737,16 @@
         <v>256</v>
       </c>
       <c r="C5" s="12">
-        <v>43122</v>
+        <v>43126</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="13">
         <f>C5</f>
-        <v>43122</v>
+        <v>43126</v>
       </c>
       <c r="F5" s="14" t="str">
         <f>C6</f>
-        <v>11.25</v>
+        <v>12.22</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="37" t="str">
@@ -1780,16 +1779,16 @@
         <v>257</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17">
         <f>IF(E5&lt;C9,E5+1," ")</f>
-        <v>43123</v>
+        <v>43127</v>
       </c>
       <c r="F6" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(C6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>12.4</v>
+        <v>13.4</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="39" t="str">
@@ -1823,16 +1822,16 @@
       </c>
       <c r="C7" s="20">
         <f>248-VLOOKUP(C6,Data!A1:B249,2,FALSE)</f>
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17">
         <f>IF(E6&lt;C9,E6+1," ")</f>
-        <v>43124</v>
+        <v>43128</v>
       </c>
       <c r="F7" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>12.8</v>
+        <v>13.8</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="41" t="str">
@@ -1870,11 +1869,11 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17">
         <f>IF(E7&lt;C9,E7+1," ")</f>
-        <v>43125</v>
+        <v>43129</v>
       </c>
       <c r="F8" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F7,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>12.12</v>
+        <v>13.12</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="43" t="str">
@@ -1912,11 +1911,11 @@
       <c r="D9" s="5"/>
       <c r="E9" s="17">
         <f>IF(E8&lt;C9,E8+1," ")</f>
-        <v>43126</v>
+        <v>43130</v>
       </c>
       <c r="F9" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F8,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>12.16</v>
+        <v>13.16</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="44" t="str">
@@ -1950,11 +1949,11 @@
       <c r="D10" s="5"/>
       <c r="E10" s="17">
         <f>IF(E9&lt;C9,E9+1," ")</f>
-        <v>43127</v>
+        <v>43131</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F9,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>12.20</v>
+        <v>14.4</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1985,11 +1984,11 @@
       <c r="D11" s="5"/>
       <c r="E11" s="17">
         <f>IF(E10&lt;C9,E10+1," ")</f>
-        <v>43128</v>
+        <v>43132</v>
       </c>
       <c r="F11" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F10,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>13.2</v>
+        <v>14.8</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2020,11 +2019,11 @@
       <c r="D12" s="5"/>
       <c r="E12" s="17">
         <f>IF(E11&lt;C9,E11+1," ")</f>
-        <v>43129</v>
+        <v>43133</v>
       </c>
       <c r="F12" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F11,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>13.6</v>
+        <v>14.12</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2055,11 +2054,11 @@
       <c r="D13" s="5"/>
       <c r="E13" s="17">
         <f>IF(E12&lt;C9,E12+1," ")</f>
-        <v>43130</v>
+        <v>43134</v>
       </c>
       <c r="F13" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F12,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>13.10</v>
+        <v>14.16</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2090,11 +2089,11 @@
       <c r="D14" s="5"/>
       <c r="E14" s="17">
         <f>IF(E13&lt;C9,E13+1," ")</f>
-        <v>43131</v>
+        <v>43135</v>
       </c>
       <c r="F14" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F13,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>13.14</v>
+        <v>14.20</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2125,11 +2124,11 @@
       <c r="D15" s="5"/>
       <c r="E15" s="17">
         <f>IF(E14&lt;C9,E14+1," ")</f>
-        <v>43132</v>
+        <v>43136</v>
       </c>
       <c r="F15" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F14,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>14.2</v>
+        <v>15.1</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2160,11 +2159,11 @@
       <c r="D16" s="5"/>
       <c r="E16" s="17">
         <f>IF(E15&lt;C9,E15+1," ")</f>
-        <v>43133</v>
+        <v>43137</v>
       </c>
       <c r="F16" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F15,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>14.6</v>
+        <v>15.5</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2195,11 +2194,11 @@
       <c r="D17" s="5"/>
       <c r="E17" s="17">
         <f>IF(E16&lt;C9,E16+1," ")</f>
-        <v>43134</v>
+        <v>43138</v>
       </c>
       <c r="F17" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F16,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>14.10</v>
+        <v>15.9</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2230,11 +2229,11 @@
       <c r="D18" s="5"/>
       <c r="E18" s="17">
         <f>IF(E17&lt;C9,E17+1," ")</f>
-        <v>43135</v>
+        <v>43139</v>
       </c>
       <c r="F18" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F17,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>14.14</v>
+        <v>15.13</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2265,11 +2264,11 @@
       <c r="D19" s="5"/>
       <c r="E19" s="17">
         <f>IF(E18&lt;C9,E18+1," ")</f>
-        <v>43136</v>
+        <v>43140</v>
       </c>
       <c r="F19" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F18,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>14.18</v>
+        <v>15.17</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2300,11 +2299,11 @@
       <c r="D20" s="5"/>
       <c r="E20" s="17">
         <f>IF(E19&lt;C9,E19+1," ")</f>
-        <v>43137</v>
+        <v>43141</v>
       </c>
       <c r="F20" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F19,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>14.22</v>
+        <v>15.21</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2335,11 +2334,11 @@
       <c r="D21" s="5"/>
       <c r="E21" s="17">
         <f>IF(E20&lt;C9,E20+1," ")</f>
-        <v>43138</v>
+        <v>43142</v>
       </c>
       <c r="F21" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F20,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>15.3</v>
+        <v>15.25</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2370,11 +2369,11 @@
       <c r="D22" s="5"/>
       <c r="E22" s="17">
         <f>IF(E21&lt;C9,E21+1," ")</f>
-        <v>43139</v>
+        <v>43143</v>
       </c>
       <c r="F22" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F21,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2405,11 +2404,11 @@
       <c r="D23" s="5"/>
       <c r="E23" s="17">
         <f>IF(E22&lt;C9,E22+1," ")</f>
-        <v>43140</v>
+        <v>43144</v>
       </c>
       <c r="F23" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F22,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
-        <v>15.11</v>
+        <v>16.7</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2440,11 +2439,11 @@
       <c r="D24" s="5"/>
       <c r="E24" s="17">
         <f>IF(E23&lt;C9,E23+1," ")</f>
-        <v>43141</v>
+        <v>43145</v>
       </c>
       <c r="F24" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F23,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
-        <v>15.15</v>
+        <v>16.11</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2475,11 +2474,11 @@
       <c r="D25" s="5"/>
       <c r="E25" s="17">
         <f>IF(E24&lt;C9,E24+1," ")</f>
-        <v>43142</v>
+        <v>43146</v>
       </c>
       <c r="F25" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F24,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
-        <v>15.19</v>
+        <v>18.1</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2510,11 +2509,11 @@
       <c r="D26" s="5"/>
       <c r="E26" s="17">
         <f>IF(E25&lt;C9,E25+1," ")</f>
-        <v>43143</v>
+        <v>43147</v>
       </c>
       <c r="F26" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F25,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
-        <v>15.23</v>
+        <v>18.5</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2545,11 +2544,11 @@
       <c r="D27" s="5"/>
       <c r="E27" s="17">
         <f>IF(E26&lt;C9,E26+1," ")</f>
-        <v>43144</v>
+        <v>43148</v>
       </c>
       <c r="F27" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F26,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
-        <v>16.1</v>
+        <v>18.9</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2580,11 +2579,11 @@
       <c r="D28" s="5"/>
       <c r="E28" s="17">
         <f>IF(E27&lt;C9,E27+1," ")</f>
-        <v>43145</v>
+        <v>43149</v>
       </c>
       <c r="F28" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F27,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
-        <v>16.5</v>
+        <v>18.13</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2615,11 +2614,11 @@
       <c r="D29" s="5"/>
       <c r="E29" s="17">
         <f>IF(E28&lt;C9,E28+1," ")</f>
-        <v>43146</v>
+        <v>43150</v>
       </c>
       <c r="F29" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F28,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
-        <v>16.9</v>
+        <v>19.4</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2650,11 +2649,11 @@
       <c r="D30" s="5"/>
       <c r="E30" s="17">
         <f>IF(E29&lt;C9,E29+1," ")</f>
-        <v>43147</v>
+        <v>43151</v>
       </c>
       <c r="F30" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F29,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
-        <v>16.13</v>
+        <v>19.8</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2685,11 +2684,11 @@
       <c r="D31" s="5"/>
       <c r="E31" s="17">
         <f>IF(E30&lt;C9,E30+1," ")</f>
-        <v>43148</v>
+        <v>43152</v>
       </c>
       <c r="F31" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F30,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
-        <v>18.3</v>
+        <v>19.12</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2720,11 +2719,11 @@
       <c r="D32" s="5"/>
       <c r="E32" s="17">
         <f>IF(E31&lt;C9,E31+1," ")</f>
-        <v>43149</v>
+        <v>43153</v>
       </c>
       <c r="F32" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F31,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
-        <v>18.7</v>
+        <v>20.1</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2755,11 +2754,11 @@
       <c r="D33" s="5"/>
       <c r="E33" s="17">
         <f>IF(E32&lt;C9,E32+1," ")</f>
-        <v>43150</v>
+        <v>43154</v>
       </c>
       <c r="F33" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F32,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
-        <v>18.11</v>
+        <v>20.5</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2790,11 +2789,11 @@
       <c r="D34" s="5"/>
       <c r="E34" s="17">
         <f>IF(E33&lt;C9,E33+1," ")</f>
-        <v>43151</v>
+        <v>43155</v>
       </c>
       <c r="F34" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F33,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
-        <v>19.2</v>
+        <v>20.9</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2825,11 +2824,11 @@
       <c r="D35" s="5"/>
       <c r="E35" s="17">
         <f>IF(E34&lt;C9,E34+1," ")</f>
-        <v>43152</v>
+        <v>43156</v>
       </c>
       <c r="F35" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F34,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
-        <v>19.6</v>
+        <v>21.1</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2860,11 +2859,11 @@
       <c r="D36" s="5"/>
       <c r="E36" s="17">
         <f>IF(E35&lt;C9,E35+1," ")</f>
-        <v>43153</v>
-      </c>
-      <c r="F36" s="18" t="str">
+        <v>43157</v>
+      </c>
+      <c r="F36" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F35,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
-        <v>19.10</v>
+        <v>#N/A</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2895,11 +2894,11 @@
       <c r="D37" s="5"/>
       <c r="E37" s="17">
         <f>IF(E36&lt;C9,E36+1," ")</f>
-        <v>43154</v>
-      </c>
-      <c r="F37" s="18" t="str">
+        <v>43158</v>
+      </c>
+      <c r="F37" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F36,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
-        <v>19.14</v>
+        <v>#N/A</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2930,11 +2929,11 @@
       <c r="D38" s="5"/>
       <c r="E38" s="17">
         <f>IF(E37&lt;C9,E37+1," ")</f>
-        <v>43155</v>
-      </c>
-      <c r="F38" s="14" t="str">
+        <v>43159</v>
+      </c>
+      <c r="F38" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F37,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
-        <v>20.3</v>
+        <v>#N/A</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2965,11 +2964,11 @@
       <c r="D39" s="5"/>
       <c r="E39" s="17">
         <f>IF(E38&lt;C9,E38+1," ")</f>
-        <v>43156</v>
-      </c>
-      <c r="F39" s="18" t="str">
+        <v>43160</v>
+      </c>
+      <c r="F39" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F38,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
-        <v>20.7</v>
+        <v>#N/A</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -3000,11 +2999,11 @@
       <c r="D40" s="5"/>
       <c r="E40" s="17">
         <f>IF(E39&lt;C9,E39+1," ")</f>
-        <v>43157</v>
-      </c>
-      <c r="F40" s="18" t="str">
+        <v>43161</v>
+      </c>
+      <c r="F40" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F39,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
-        <v>20.11</v>
+        <v>#N/A</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -3035,11 +3034,11 @@
       <c r="D41" s="5"/>
       <c r="E41" s="17">
         <f>IF(E40&lt;C9,E40+1," ")</f>
-        <v>43158</v>
-      </c>
-      <c r="F41" s="18" t="str">
+        <v>43162</v>
+      </c>
+      <c r="F41" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F40,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
-        <v>22</v>
+        <v>#N/A</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -3070,7 +3069,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="17">
         <f>IF(E41&lt;C9,E41+1," ")</f>
-        <v>43159</v>
+        <v>43163</v>
       </c>
       <c r="F42" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F41,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3105,7 +3104,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="17">
         <f>IF(E42&lt;C9,E42+1," ")</f>
-        <v>43160</v>
+        <v>43164</v>
       </c>
       <c r="F43" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F42,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3140,7 +3139,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="17">
         <f>IF(E43&lt;C9,E43+1," ")</f>
-        <v>43161</v>
+        <v>43165</v>
       </c>
       <c r="F44" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F43,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3175,7 +3174,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="17">
         <f>IF(E44&lt;C9,E44+1," ")</f>
-        <v>43162</v>
+        <v>43166</v>
       </c>
       <c r="F45" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F44,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3210,7 +3209,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="17">
         <f>IF(E45&lt;C9,E45+1," ")</f>
-        <v>43163</v>
+        <v>43167</v>
       </c>
       <c r="F46" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F45,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3245,7 +3244,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="17">
         <f>IF(E46&lt;C9,E46+1," ")</f>
-        <v>43164</v>
+        <v>43168</v>
       </c>
       <c r="F47" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F46,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3280,7 +3279,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="17">
         <f>IF(E47&lt;C9,E47+1," ")</f>
-        <v>43165</v>
+        <v>43169</v>
       </c>
       <c r="F48" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F47,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3315,7 +3314,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="17">
         <f>IF(E48&lt;C9,E48+1," ")</f>
-        <v>43166</v>
+        <v>43170</v>
       </c>
       <c r="F49" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F48,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3350,7 +3349,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="17">
         <f>IF(E49&lt;C9,E49+1," ")</f>
-        <v>43167</v>
+        <v>43171</v>
       </c>
       <c r="F50" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F49,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3385,7 +3384,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="17">
         <f>IF(E50&lt;C9,E50+1," ")</f>
-        <v>43168</v>
+        <v>43172</v>
       </c>
       <c r="F51" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F50,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3420,7 +3419,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="17">
         <f>IF(E51&lt;C9,E51+1," ")</f>
-        <v>43169</v>
+        <v>43173</v>
       </c>
       <c r="F52" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F51,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3455,7 +3454,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="17">
         <f>IF(E52&lt;C9,E52+1," ")</f>
-        <v>43170</v>
+        <v>43174</v>
       </c>
       <c r="F53" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F52,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3490,7 +3489,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="17">
         <f>IF(E53&lt;C9,E53+1," ")</f>
-        <v>43171</v>
+        <v>43175</v>
       </c>
       <c r="F54" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F53,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3525,7 +3524,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="17">
         <f>IF(E54&lt;C9,E54+1," ")</f>
-        <v>43172</v>
+        <v>43176</v>
       </c>
       <c r="F55" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F54,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3560,7 +3559,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="17">
         <f>IF(E55&lt;C9,E55+1," ")</f>
-        <v>43173</v>
+        <v>43177</v>
       </c>
       <c r="F56" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F55,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3595,7 +3594,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="17">
         <f>IF(E56&lt;C9,E56+1," ")</f>
-        <v>43174</v>
+        <v>43178</v>
       </c>
       <c r="F57" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F56,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3630,7 +3629,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="17">
         <f>IF(E57&lt;C9,E57+1," ")</f>
-        <v>43175</v>
+        <v>43179</v>
       </c>
       <c r="F58" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F57,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3665,7 +3664,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="17">
         <f>IF(E58&lt;C9,E58+1," ")</f>
-        <v>43176</v>
+        <v>43180</v>
       </c>
       <c r="F59" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F58,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3700,7 +3699,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="17">
         <f>IF(E59&lt;C9,E59+1," ")</f>
-        <v>43177</v>
+        <v>43181</v>
       </c>
       <c r="F60" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F59,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3735,7 +3734,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="17">
         <f>IF(E60&lt;C9,E60+1," ")</f>
-        <v>43178</v>
+        <v>43182</v>
       </c>
       <c r="F61" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F60,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3770,7 +3769,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="17">
         <f>IF(E61&lt;C9,E61+1," ")</f>
-        <v>43179</v>
+        <v>43183</v>
       </c>
       <c r="F62" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F61,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3805,7 +3804,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="17">
         <f>IF(E62&lt;C9,E62+1," ")</f>
-        <v>43180</v>
+        <v>43184</v>
       </c>
       <c r="F63" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F62,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3840,7 +3839,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="17">
         <f>IF(E63&lt;C9,E63+1," ")</f>
-        <v>43181</v>
+        <v>43185</v>
       </c>
       <c r="F64" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F63,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3875,7 +3874,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="17">
         <f>IF(E64&lt;C9,E64+1," ")</f>
-        <v>43182</v>
+        <v>43186</v>
       </c>
       <c r="F65" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F64,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3910,7 +3909,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="17">
         <f>IF(E65&lt;C9,E65+1," ")</f>
-        <v>43183</v>
+        <v>43187</v>
       </c>
       <c r="F66" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F65,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3945,7 +3944,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="17">
         <f>IF(E66&lt;C9,E66+1," ")</f>
-        <v>43184</v>
+        <v>43188</v>
       </c>
       <c r="F67" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F66,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -3980,7 +3979,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="17">
         <f>IF(E67&lt;C9,E67+1," ")</f>
-        <v>43185</v>
+        <v>43189</v>
       </c>
       <c r="F68" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F67,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -4015,7 +4014,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="17">
         <f>IF(E68&lt;C9,E68+1," ")</f>
-        <v>43186</v>
+        <v>43190</v>
       </c>
       <c r="F69" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F68,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -4050,7 +4049,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="17">
         <f>IF(E69&lt;C9,E69+1," ")</f>
-        <v>43187</v>
+        <v>43191</v>
       </c>
       <c r="F70" s="27" t="e">
         <f>VLOOKUP(VLOOKUP(F69,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -4085,7 +4084,7 @@
       <c r="D71" s="5"/>
       <c r="E71" s="17">
         <f>IF(E70&lt;C9,E70+1," ")</f>
-        <v>43188</v>
+        <v>43192</v>
       </c>
       <c r="F71" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F70,Data!A65:B313,2,FALSE)+C8,Data!D65:E313,2,FALSE)</f>
@@ -4120,7 +4119,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="17">
         <f>IF(E71&lt;C9,E71+1," ")</f>
-        <v>43189</v>
+        <v>43193</v>
       </c>
       <c r="F72" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F71,Data!A65:B313,2,FALSE)+C8,Data!D65:E313,2,FALSE)</f>
@@ -4155,7 +4154,7 @@
       <c r="D73" s="5"/>
       <c r="E73" s="17">
         <f>IF(E72&lt;C9,E72+1," ")</f>
-        <v>43190</v>
+        <v>43194</v>
       </c>
       <c r="F73" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F72,Data!A65:B313,2,FALSE)+C8,Data!D65:E313,2,FALSE)</f>
@@ -4190,7 +4189,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="17">
         <f>IF(E73&lt;C9,E73+1," ")</f>
-        <v>43191</v>
+        <v>43195</v>
       </c>
       <c r="F74" s="27" t="e">
         <f>VLOOKUP(VLOOKUP(F73,Data!A65:B313,2,FALSE)+C8,Data!D65:E313,2,FALSE)</f>
@@ -4225,7 +4224,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="17">
         <f>IF(E74&lt;C9,E74+1," ")</f>
-        <v>43192</v>
+        <v>43196</v>
       </c>
       <c r="F75" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F74,Data!A69:B317,2,FALSE)+C8,Data!D69:E317,2,FALSE)</f>
@@ -4260,7 +4259,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="17">
         <f>IF(E75&lt;C9,E75+1," ")</f>
-        <v>43193</v>
+        <v>43197</v>
       </c>
       <c r="F76" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F75,Data!A69:B317,2,FALSE)+C8,Data!D69:E317,2,FALSE)</f>
@@ -4295,7 +4294,7 @@
       <c r="D77" s="5"/>
       <c r="E77" s="17">
         <f>IF(E76&lt;C9,E76+1," ")</f>
-        <v>43194</v>
+        <v>43198</v>
       </c>
       <c r="F77" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F76,Data!A69:B317,2,FALSE)+C8,Data!D69:E317,2,FALSE)</f>
@@ -4330,7 +4329,7 @@
       <c r="D78" s="5"/>
       <c r="E78" s="17">
         <f>IF(E77&lt;C9,E77+1," ")</f>
-        <v>43195</v>
+        <v>43199</v>
       </c>
       <c r="F78" s="27" t="e">
         <f>VLOOKUP(VLOOKUP(F77,Data!A69:B317,2,FALSE)+C8,Data!D69:E317,2,FALSE)</f>
@@ -4365,7 +4364,7 @@
       <c r="D79" s="5"/>
       <c r="E79" s="17">
         <f>IF(E78&lt;C9,E78+1," ")</f>
-        <v>43196</v>
+        <v>43200</v>
       </c>
       <c r="F79" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F78,Data!A73:B321,2,FALSE)+C8,Data!D73:E321,2,FALSE)</f>
@@ -4400,7 +4399,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="17">
         <f>IF(E79&lt;C9,E79+1," ")</f>
-        <v>43197</v>
+        <v>43201</v>
       </c>
       <c r="F80" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F79,Data!A73:B321,2,FALSE)+C8,Data!D73:E321,2,FALSE)</f>
@@ -4433,9 +4432,9 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="17">
+      <c r="E81" s="17" t="str">
         <f>IF(E80&lt;C9,E80+1," ")</f>
-        <v>43198</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F81" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F80,Data!A73:B321,2,FALSE)+C8,Data!D73:E321,2,FALSE)</f>
@@ -4468,9 +4467,9 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="17">
+      <c r="E82" s="17" t="str">
         <f>IF(E81&lt;C9,E81+1," ")</f>
-        <v>43199</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F82" s="27" t="e">
         <f>VLOOKUP(VLOOKUP(F81,Data!A73:B321,2,FALSE)+C8,Data!D73:E321,2,FALSE)</f>
@@ -4503,9 +4502,9 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="17">
+      <c r="E83" s="17" t="str">
         <f>IF(E82&lt;C9,E82+1," ")</f>
-        <v>43200</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F83" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F82,Data!A77:B325,2,FALSE)+C8,Data!D77:E325,2,FALSE)</f>
@@ -4538,9 +4537,9 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="17">
+      <c r="E84" s="17" t="str">
         <f>IF(E83&lt;C9,E83+1," ")</f>
-        <v>43201</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F84" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F83,Data!A77:B325,2,FALSE)+C8,Data!D77:E325,2,FALSE)</f>
@@ -31264,7 +31263,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
@@ -31273,6 +31271,7 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F1002">
     <cfRule type="expression" dxfId="1" priority="1">

--- a/Udacity Schedule Maker.xlsx
+++ b/Udacity Schedule Maker.xlsx
@@ -1743,7 +1743,7 @@
       </c>
       <c r="F5" s="14" t="str">
         <f>C6</f>
-        <v>14.4</v>
+        <v>14.23</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="40" t="str">
@@ -1776,7 +1776,7 @@
         <v>257</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="F6" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(C6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="42" t="str">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="C7" s="20">
         <f>248-VLOOKUP(C6,Data!A1:B249,2,FALSE)</f>
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="F7" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>14.12</v>
+        <v>15.8</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="43" t="str">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="F8" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F7,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>14.16</v>
+        <v>15.12</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="31" t="str">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="F9" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F8,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>14.20</v>
+        <v>15.16</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="33" t="str">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="F10" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F9,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>15.1</v>
+        <v>15.20</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F11" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F10,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>15.5</v>
+        <v>15.24</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="F12" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F11,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>15.9</v>
+        <v>16.2</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="F13" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F12,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>15.13</v>
+        <v>16.6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="F14" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F13,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>15.17</v>
+        <v>16.10</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="F15" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F14,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>15.21</v>
+        <v>17.1</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="F16" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F15,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>15.25</v>
+        <v>18.4</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="F17" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F16,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>16.3</v>
+        <v>18.8</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="F18" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F17,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>16.7</v>
+        <v>18.12</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="F19" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F18,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>16.11</v>
+        <v>19.3</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="F20" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F19,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>18.1</v>
+        <v>19.7</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="F21" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F20,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>18.5</v>
+        <v>19.11</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="F22" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F21,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>18.9</v>
+        <v>19.15</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="F23" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F22,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
-        <v>18.13</v>
+        <v>20.4</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="F24" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F23,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
-        <v>19.4</v>
+        <v>20.8</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="F25" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F24,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
-        <v>19.8</v>
+        <v>20.12</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2508,9 +2508,9 @@
         <f>IF(E25&lt;C9,E25+1," ")</f>
         <v>43150</v>
       </c>
-      <c r="F26" s="14" t="str">
+      <c r="F26" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F25,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
-        <v>19.12</v>
+        <v>#N/A</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2543,9 +2543,9 @@
         <f>IF(E26&lt;C9,E26+1," ")</f>
         <v>43151</v>
       </c>
-      <c r="F27" s="18" t="str">
+      <c r="F27" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F26,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
-        <v>20.1</v>
+        <v>#N/A</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2578,9 +2578,9 @@
         <f>IF(E27&lt;C9,E27+1," ")</f>
         <v>43152</v>
       </c>
-      <c r="F28" s="18" t="str">
+      <c r="F28" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F27,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
-        <v>20.5</v>
+        <v>#N/A</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2613,9 +2613,9 @@
         <f>IF(E28&lt;C9,E28+1," ")</f>
         <v>43153</v>
       </c>
-      <c r="F29" s="18" t="str">
+      <c r="F29" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F28,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
-        <v>20.9</v>
+        <v>#N/A</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2648,9 +2648,9 @@
         <f>IF(E29&lt;C9,E29+1," ")</f>
         <v>43154</v>
       </c>
-      <c r="F30" s="14" t="str">
+      <c r="F30" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F29,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
-        <v>21.1</v>
+        <v>#N/A</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>

--- a/Udacity Schedule Maker.xlsx
+++ b/Udacity Schedule Maker.xlsx
@@ -1734,16 +1734,16 @@
         <v>256</v>
       </c>
       <c r="C5" s="12">
-        <v>43129</v>
+        <v>43130</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="13">
         <f>C5</f>
-        <v>43129</v>
+        <v>43130</v>
       </c>
       <c r="F5" s="14" t="str">
         <f>C6</f>
-        <v>14.23</v>
+        <v>15.15</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="40" t="str">
@@ -1776,16 +1776,16 @@
         <v>257</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17">
         <f>IF(E5&lt;C9,E5+1," ")</f>
-        <v>43130</v>
+        <v>43131</v>
       </c>
       <c r="F6" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(C6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>15.4</v>
+        <v>15.19</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="42" t="str">
@@ -1819,16 +1819,16 @@
       </c>
       <c r="C7" s="20">
         <f>248-VLOOKUP(C6,Data!A1:B249,2,FALSE)</f>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17">
         <f>IF(E6&lt;C9,E6+1," ")</f>
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="F7" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>15.8</v>
+        <v>15.23</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="43" t="str">
@@ -1866,11 +1866,11 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17">
         <f>IF(E7&lt;C9,E7+1," ")</f>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F8" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F7,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>15.12</v>
+        <v>16.1</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="31" t="str">
@@ -1908,11 +1908,11 @@
       <c r="D9" s="5"/>
       <c r="E9" s="17">
         <f>IF(E8&lt;C9,E8+1," ")</f>
-        <v>43133</v>
+        <v>43134</v>
       </c>
       <c r="F9" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F8,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>15.16</v>
+        <v>16.5</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="33" t="str">
@@ -1946,11 +1946,11 @@
       <c r="D10" s="5"/>
       <c r="E10" s="17">
         <f>IF(E9&lt;C9,E9+1," ")</f>
-        <v>43134</v>
+        <v>43135</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F9,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>15.20</v>
+        <v>16.9</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1981,11 +1981,11 @@
       <c r="D11" s="5"/>
       <c r="E11" s="17">
         <f>IF(E10&lt;C9,E10+1," ")</f>
-        <v>43135</v>
+        <v>43136</v>
       </c>
       <c r="F11" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F10,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>15.24</v>
+        <v>16.13</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2016,11 +2016,11 @@
       <c r="D12" s="5"/>
       <c r="E12" s="17">
         <f>IF(E11&lt;C9,E11+1," ")</f>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="F12" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F11,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>16.2</v>
+        <v>18.3</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2051,11 +2051,11 @@
       <c r="D13" s="5"/>
       <c r="E13" s="17">
         <f>IF(E12&lt;C9,E12+1," ")</f>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="F13" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F12,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>16.6</v>
+        <v>18.7</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2086,11 +2086,11 @@
       <c r="D14" s="5"/>
       <c r="E14" s="17">
         <f>IF(E13&lt;C9,E13+1," ")</f>
-        <v>43138</v>
+        <v>43139</v>
       </c>
       <c r="F14" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F13,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>16.10</v>
+        <v>18.11</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2121,11 +2121,11 @@
       <c r="D15" s="5"/>
       <c r="E15" s="17">
         <f>IF(E14&lt;C9,E14+1," ")</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="F15" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F14,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>17.1</v>
+        <v>19.2</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2156,11 +2156,11 @@
       <c r="D16" s="5"/>
       <c r="E16" s="17">
         <f>IF(E15&lt;C9,E15+1," ")</f>
-        <v>43140</v>
+        <v>43141</v>
       </c>
       <c r="F16" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F15,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>18.4</v>
+        <v>19.6</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2191,11 +2191,11 @@
       <c r="D17" s="5"/>
       <c r="E17" s="17">
         <f>IF(E16&lt;C9,E16+1," ")</f>
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="F17" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F16,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>18.8</v>
+        <v>19.10</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2226,11 +2226,11 @@
       <c r="D18" s="5"/>
       <c r="E18" s="17">
         <f>IF(E17&lt;C9,E17+1," ")</f>
-        <v>43142</v>
+        <v>43143</v>
       </c>
       <c r="F18" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F17,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>18.12</v>
+        <v>19.14</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2261,11 +2261,11 @@
       <c r="D19" s="5"/>
       <c r="E19" s="17">
         <f>IF(E18&lt;C9,E18+1," ")</f>
-        <v>43143</v>
+        <v>43144</v>
       </c>
       <c r="F19" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F18,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>19.3</v>
+        <v>20.3</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2296,11 +2296,11 @@
       <c r="D20" s="5"/>
       <c r="E20" s="17">
         <f>IF(E19&lt;C9,E19+1," ")</f>
-        <v>43144</v>
+        <v>43145</v>
       </c>
       <c r="F20" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F19,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2331,11 +2331,11 @@
       <c r="D21" s="5"/>
       <c r="E21" s="17">
         <f>IF(E20&lt;C9,E20+1," ")</f>
-        <v>43145</v>
+        <v>43146</v>
       </c>
       <c r="F21" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F20,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>19.11</v>
+        <v>20.11</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2366,11 +2366,11 @@
       <c r="D22" s="5"/>
       <c r="E22" s="17">
         <f>IF(E21&lt;C9,E21+1," ")</f>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="F22" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F21,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>19.15</v>
+        <v>22</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2401,11 +2401,11 @@
       <c r="D23" s="5"/>
       <c r="E23" s="17">
         <f>IF(E22&lt;C9,E22+1," ")</f>
-        <v>43147</v>
-      </c>
-      <c r="F23" s="18" t="str">
+        <v>43148</v>
+      </c>
+      <c r="F23" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F22,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
-        <v>20.4</v>
+        <v>#N/A</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2436,11 +2436,11 @@
       <c r="D24" s="5"/>
       <c r="E24" s="17">
         <f>IF(E23&lt;C9,E23+1," ")</f>
-        <v>43148</v>
-      </c>
-      <c r="F24" s="18" t="str">
+        <v>43149</v>
+      </c>
+      <c r="F24" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F23,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
-        <v>20.8</v>
+        <v>#N/A</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2471,11 +2471,11 @@
       <c r="D25" s="5"/>
       <c r="E25" s="17">
         <f>IF(E24&lt;C9,E24+1," ")</f>
-        <v>43149</v>
-      </c>
-      <c r="F25" s="18" t="str">
+        <v>43150</v>
+      </c>
+      <c r="F25" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F24,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
-        <v>20.12</v>
+        <v>#N/A</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2506,7 +2506,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="17">
         <f>IF(E25&lt;C9,E25+1," ")</f>
-        <v>43150</v>
+        <v>43151</v>
       </c>
       <c r="F26" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F25,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2541,7 +2541,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="17">
         <f>IF(E26&lt;C9,E26+1," ")</f>
-        <v>43151</v>
+        <v>43152</v>
       </c>
       <c r="F27" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F26,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2576,7 +2576,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="17">
         <f>IF(E27&lt;C9,E27+1," ")</f>
-        <v>43152</v>
+        <v>43153</v>
       </c>
       <c r="F28" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F27,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2611,7 +2611,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="17">
         <f>IF(E28&lt;C9,E28+1," ")</f>
-        <v>43153</v>
+        <v>43154</v>
       </c>
       <c r="F29" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F28,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2646,7 +2646,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="17">
         <f>IF(E29&lt;C9,E29+1," ")</f>
-        <v>43154</v>
+        <v>43155</v>
       </c>
       <c r="F30" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F29,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2681,7 +2681,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="17">
         <f>IF(E30&lt;C9,E30+1," ")</f>
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="F31" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F30,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2716,7 +2716,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="17">
         <f>IF(E31&lt;C9,E31+1," ")</f>
-        <v>43156</v>
+        <v>43157</v>
       </c>
       <c r="F32" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F31,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2751,7 +2751,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="17">
         <f>IF(E32&lt;C9,E32+1," ")</f>
-        <v>43157</v>
+        <v>43158</v>
       </c>
       <c r="F33" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F32,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2786,7 +2786,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="17">
         <f>IF(E33&lt;C9,E33+1," ")</f>
-        <v>43158</v>
+        <v>43159</v>
       </c>
       <c r="F34" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F33,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2821,7 +2821,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="17">
         <f>IF(E34&lt;C9,E34+1," ")</f>
-        <v>43159</v>
+        <v>43160</v>
       </c>
       <c r="F35" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F34,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2856,7 +2856,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="17">
         <f>IF(E35&lt;C9,E35+1," ")</f>
-        <v>43160</v>
+        <v>43161</v>
       </c>
       <c r="F36" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F35,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2891,7 +2891,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="17">
         <f>IF(E36&lt;C9,E36+1," ")</f>
-        <v>43161</v>
+        <v>43162</v>
       </c>
       <c r="F37" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F36,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2926,7 +2926,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="17">
         <f>IF(E37&lt;C9,E37+1," ")</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="F38" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F37,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2961,7 +2961,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="17">
         <f>IF(E38&lt;C9,E38+1," ")</f>
-        <v>43163</v>
+        <v>43164</v>
       </c>
       <c r="F39" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F38,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -2996,7 +2996,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="17">
         <f>IF(E39&lt;C9,E39+1," ")</f>
-        <v>43164</v>
+        <v>43165</v>
       </c>
       <c r="F40" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F39,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3031,7 +3031,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="17">
         <f>IF(E40&lt;C9,E40+1," ")</f>
-        <v>43165</v>
+        <v>43166</v>
       </c>
       <c r="F41" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F40,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3066,7 +3066,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="17">
         <f>IF(E41&lt;C9,E41+1," ")</f>
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="F42" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F41,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3101,7 +3101,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="17">
         <f>IF(E42&lt;C9,E42+1," ")</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="F43" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F42,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3136,7 +3136,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="17">
         <f>IF(E43&lt;C9,E43+1," ")</f>
-        <v>43168</v>
+        <v>43169</v>
       </c>
       <c r="F44" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F43,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3171,7 +3171,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="17">
         <f>IF(E44&lt;C9,E44+1," ")</f>
-        <v>43169</v>
+        <v>43170</v>
       </c>
       <c r="F45" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F44,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3206,7 +3206,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="17">
         <f>IF(E45&lt;C9,E45+1," ")</f>
-        <v>43170</v>
+        <v>43171</v>
       </c>
       <c r="F46" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F45,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3241,7 +3241,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="17">
         <f>IF(E46&lt;C9,E46+1," ")</f>
-        <v>43171</v>
+        <v>43172</v>
       </c>
       <c r="F47" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F46,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3276,7 +3276,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="17">
         <f>IF(E47&lt;C9,E47+1," ")</f>
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="F48" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F47,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3311,7 +3311,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="17">
         <f>IF(E48&lt;C9,E48+1," ")</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F49" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F48,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3346,7 +3346,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="17">
         <f>IF(E49&lt;C9,E49+1," ")</f>
-        <v>43174</v>
+        <v>43175</v>
       </c>
       <c r="F50" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F49,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3381,7 +3381,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="17">
         <f>IF(E50&lt;C9,E50+1," ")</f>
-        <v>43175</v>
+        <v>43176</v>
       </c>
       <c r="F51" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F50,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3416,7 +3416,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="17">
         <f>IF(E51&lt;C9,E51+1," ")</f>
-        <v>43176</v>
+        <v>43177</v>
       </c>
       <c r="F52" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F51,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3451,7 +3451,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="17">
         <f>IF(E52&lt;C9,E52+1," ")</f>
-        <v>43177</v>
+        <v>43178</v>
       </c>
       <c r="F53" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F52,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3486,7 +3486,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="17">
         <f>IF(E53&lt;C9,E53+1," ")</f>
-        <v>43178</v>
+        <v>43179</v>
       </c>
       <c r="F54" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F53,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3521,7 +3521,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="17">
         <f>IF(E54&lt;C9,E54+1," ")</f>
-        <v>43179</v>
+        <v>43180</v>
       </c>
       <c r="F55" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F54,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3556,7 +3556,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="17">
         <f>IF(E55&lt;C9,E55+1," ")</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F56" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F55,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3591,7 +3591,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="17">
         <f>IF(E56&lt;C9,E56+1," ")</f>
-        <v>43181</v>
+        <v>43182</v>
       </c>
       <c r="F57" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F56,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3626,7 +3626,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="17">
         <f>IF(E57&lt;C9,E57+1," ")</f>
-        <v>43182</v>
+        <v>43183</v>
       </c>
       <c r="F58" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F57,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3661,7 +3661,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="17">
         <f>IF(E58&lt;C9,E58+1," ")</f>
-        <v>43183</v>
+        <v>43184</v>
       </c>
       <c r="F59" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F58,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3696,7 +3696,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="17">
         <f>IF(E59&lt;C9,E59+1," ")</f>
-        <v>43184</v>
+        <v>43185</v>
       </c>
       <c r="F60" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F59,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3731,7 +3731,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="17">
         <f>IF(E60&lt;C9,E60+1," ")</f>
-        <v>43185</v>
+        <v>43186</v>
       </c>
       <c r="F61" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F60,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3766,7 +3766,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="17">
         <f>IF(E61&lt;C9,E61+1," ")</f>
-        <v>43186</v>
+        <v>43187</v>
       </c>
       <c r="F62" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F61,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3801,7 +3801,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="17">
         <f>IF(E62&lt;C9,E62+1," ")</f>
-        <v>43187</v>
+        <v>43188</v>
       </c>
       <c r="F63" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F62,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3836,7 +3836,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="17">
         <f>IF(E63&lt;C9,E63+1," ")</f>
-        <v>43188</v>
+        <v>43189</v>
       </c>
       <c r="F64" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F63,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3871,7 +3871,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="17">
         <f>IF(E64&lt;C9,E64+1," ")</f>
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="F65" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F64,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3906,7 +3906,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="17">
         <f>IF(E65&lt;C9,E65+1," ")</f>
-        <v>43190</v>
+        <v>43191</v>
       </c>
       <c r="F66" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F65,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3941,7 +3941,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="17">
         <f>IF(E66&lt;C9,E66+1," ")</f>
-        <v>43191</v>
+        <v>43192</v>
       </c>
       <c r="F67" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F66,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -3976,7 +3976,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="17">
         <f>IF(E67&lt;C9,E67+1," ")</f>
-        <v>43192</v>
+        <v>43193</v>
       </c>
       <c r="F68" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F67,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -4011,7 +4011,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="17">
         <f>IF(E68&lt;C9,E68+1," ")</f>
-        <v>43193</v>
+        <v>43194</v>
       </c>
       <c r="F69" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F68,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -4046,7 +4046,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="17">
         <f>IF(E69&lt;C9,E69+1," ")</f>
-        <v>43194</v>
+        <v>43195</v>
       </c>
       <c r="F70" s="27" t="e">
         <f>VLOOKUP(VLOOKUP(F69,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -4081,7 +4081,7 @@
       <c r="D71" s="5"/>
       <c r="E71" s="17">
         <f>IF(E70&lt;C9,E70+1," ")</f>
-        <v>43195</v>
+        <v>43196</v>
       </c>
       <c r="F71" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F70,Data!A65:B313,2,FALSE)+C8,Data!D65:E313,2,FALSE)</f>
@@ -4116,7 +4116,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="17">
         <f>IF(E71&lt;C9,E71+1," ")</f>
-        <v>43196</v>
+        <v>43197</v>
       </c>
       <c r="F72" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F71,Data!A65:B313,2,FALSE)+C8,Data!D65:E313,2,FALSE)</f>
@@ -4151,7 +4151,7 @@
       <c r="D73" s="5"/>
       <c r="E73" s="17">
         <f>IF(E72&lt;C9,E72+1," ")</f>
-        <v>43197</v>
+        <v>43198</v>
       </c>
       <c r="F73" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F72,Data!A65:B313,2,FALSE)+C8,Data!D65:E313,2,FALSE)</f>
@@ -4186,7 +4186,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="17">
         <f>IF(E73&lt;C9,E73+1," ")</f>
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="F74" s="27" t="e">
         <f>VLOOKUP(VLOOKUP(F73,Data!A65:B313,2,FALSE)+C8,Data!D65:E313,2,FALSE)</f>
@@ -4221,7 +4221,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="17">
         <f>IF(E74&lt;C9,E74+1," ")</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="F75" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F74,Data!A69:B317,2,FALSE)+C8,Data!D69:E317,2,FALSE)</f>
@@ -4256,7 +4256,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="17">
         <f>IF(E75&lt;C9,E75+1," ")</f>
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="F76" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F75,Data!A69:B317,2,FALSE)+C8,Data!D69:E317,2,FALSE)</f>
@@ -4289,9 +4289,9 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="17">
+      <c r="E77" s="17" t="str">
         <f>IF(E76&lt;C9,E76+1," ")</f>
-        <v>43201</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F77" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F76,Data!A69:B317,2,FALSE)+C8,Data!D69:E317,2,FALSE)</f>

--- a/Udacity Schedule Maker.xlsx
+++ b/Udacity Schedule Maker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1734,16 +1734,16 @@
         <v>256</v>
       </c>
       <c r="C5" s="12">
-        <v>43130</v>
+        <v>43136</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="13">
         <f>C5</f>
-        <v>43130</v>
+        <v>43136</v>
       </c>
       <c r="F5" s="14" t="str">
         <f>C6</f>
-        <v>15.15</v>
+        <v>15.26</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="40" t="str">
@@ -1776,16 +1776,16 @@
         <v>257</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17">
         <f>IF(E5&lt;C9,E5+1," ")</f>
-        <v>43131</v>
+        <v>43137</v>
       </c>
       <c r="F6" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(C6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>15.19</v>
+        <v>16.4</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="42" t="str">
@@ -1819,16 +1819,16 @@
       </c>
       <c r="C7" s="20">
         <f>248-VLOOKUP(C6,Data!A1:B249,2,FALSE)</f>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17">
         <f>IF(E6&lt;C9,E6+1," ")</f>
-        <v>43132</v>
+        <v>43138</v>
       </c>
       <c r="F7" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>15.23</v>
+        <v>16.8</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="43" t="str">
@@ -1866,11 +1866,11 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17">
         <f>IF(E7&lt;C9,E7+1," ")</f>
-        <v>43133</v>
+        <v>43139</v>
       </c>
       <c r="F8" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F7,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>16.1</v>
+        <v>16.12</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="31" t="str">
@@ -1908,11 +1908,11 @@
       <c r="D9" s="5"/>
       <c r="E9" s="17">
         <f>IF(E8&lt;C9,E8+1," ")</f>
-        <v>43134</v>
+        <v>43140</v>
       </c>
       <c r="F9" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F8,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>16.5</v>
+        <v>18.2</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="33" t="str">
@@ -1946,11 +1946,11 @@
       <c r="D10" s="5"/>
       <c r="E10" s="17">
         <f>IF(E9&lt;C9,E9+1," ")</f>
-        <v>43135</v>
+        <v>43141</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F9,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>16.9</v>
+        <v>18.6</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1981,11 +1981,11 @@
       <c r="D11" s="5"/>
       <c r="E11" s="17">
         <f>IF(E10&lt;C9,E10+1," ")</f>
-        <v>43136</v>
+        <v>43142</v>
       </c>
       <c r="F11" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F10,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>16.13</v>
+        <v>18.10</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2016,11 +2016,11 @@
       <c r="D12" s="5"/>
       <c r="E12" s="17">
         <f>IF(E11&lt;C9,E11+1," ")</f>
-        <v>43137</v>
+        <v>43143</v>
       </c>
       <c r="F12" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F11,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>18.3</v>
+        <v>19.1</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2051,11 +2051,11 @@
       <c r="D13" s="5"/>
       <c r="E13" s="17">
         <f>IF(E12&lt;C9,E12+1," ")</f>
-        <v>43138</v>
+        <v>43144</v>
       </c>
       <c r="F13" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F12,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2086,11 +2086,11 @@
       <c r="D14" s="5"/>
       <c r="E14" s="17">
         <f>IF(E13&lt;C9,E13+1," ")</f>
-        <v>43139</v>
+        <v>43145</v>
       </c>
       <c r="F14" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F13,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>18.11</v>
+        <v>19.9</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2121,11 +2121,11 @@
       <c r="D15" s="5"/>
       <c r="E15" s="17">
         <f>IF(E14&lt;C9,E14+1," ")</f>
-        <v>43140</v>
+        <v>43146</v>
       </c>
       <c r="F15" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F14,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>19.2</v>
+        <v>19.13</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2156,11 +2156,11 @@
       <c r="D16" s="5"/>
       <c r="E16" s="17">
         <f>IF(E15&lt;C9,E15+1," ")</f>
-        <v>43141</v>
+        <v>43147</v>
       </c>
       <c r="F16" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F15,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>19.6</v>
+        <v>20.2</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2191,11 +2191,11 @@
       <c r="D17" s="5"/>
       <c r="E17" s="17">
         <f>IF(E16&lt;C9,E16+1," ")</f>
-        <v>43142</v>
+        <v>43148</v>
       </c>
       <c r="F17" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F16,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>19.10</v>
+        <v>20.6</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2226,11 +2226,11 @@
       <c r="D18" s="5"/>
       <c r="E18" s="17">
         <f>IF(E17&lt;C9,E17+1," ")</f>
-        <v>43143</v>
+        <v>43149</v>
       </c>
       <c r="F18" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F17,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>19.14</v>
+        <v>20.10</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2261,11 +2261,11 @@
       <c r="D19" s="5"/>
       <c r="E19" s="17">
         <f>IF(E18&lt;C9,E18+1," ")</f>
-        <v>43144</v>
+        <v>43150</v>
       </c>
       <c r="F19" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F18,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>20.3</v>
+        <v>21.2</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2296,11 +2296,11 @@
       <c r="D20" s="5"/>
       <c r="E20" s="17">
         <f>IF(E19&lt;C9,E19+1," ")</f>
-        <v>43145</v>
-      </c>
-      <c r="F20" s="18" t="str">
+        <v>43151</v>
+      </c>
+      <c r="F20" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F19,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>20.7</v>
+        <v>#N/A</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2331,11 +2331,11 @@
       <c r="D21" s="5"/>
       <c r="E21" s="17">
         <f>IF(E20&lt;C9,E20+1," ")</f>
-        <v>43146</v>
-      </c>
-      <c r="F21" s="18" t="str">
+        <v>43152</v>
+      </c>
+      <c r="F21" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F20,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>20.11</v>
+        <v>#N/A</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2366,11 +2366,11 @@
       <c r="D22" s="5"/>
       <c r="E22" s="17">
         <f>IF(E21&lt;C9,E21+1," ")</f>
-        <v>43147</v>
-      </c>
-      <c r="F22" s="14" t="str">
+        <v>43153</v>
+      </c>
+      <c r="F22" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F21,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>22</v>
+        <v>#N/A</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2401,7 +2401,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="17">
         <f>IF(E22&lt;C9,E22+1," ")</f>
-        <v>43148</v>
+        <v>43154</v>
       </c>
       <c r="F23" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F22,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2436,7 +2436,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="17">
         <f>IF(E23&lt;C9,E23+1," ")</f>
-        <v>43149</v>
+        <v>43155</v>
       </c>
       <c r="F24" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F23,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2471,7 +2471,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="17">
         <f>IF(E24&lt;C9,E24+1," ")</f>
-        <v>43150</v>
+        <v>43156</v>
       </c>
       <c r="F25" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F24,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2506,7 +2506,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="17">
         <f>IF(E25&lt;C9,E25+1," ")</f>
-        <v>43151</v>
+        <v>43157</v>
       </c>
       <c r="F26" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F25,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2541,7 +2541,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="17">
         <f>IF(E26&lt;C9,E26+1," ")</f>
-        <v>43152</v>
+        <v>43158</v>
       </c>
       <c r="F27" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F26,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2576,7 +2576,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="17">
         <f>IF(E27&lt;C9,E27+1," ")</f>
-        <v>43153</v>
+        <v>43159</v>
       </c>
       <c r="F28" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F27,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2611,7 +2611,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="17">
         <f>IF(E28&lt;C9,E28+1," ")</f>
-        <v>43154</v>
+        <v>43160</v>
       </c>
       <c r="F29" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F28,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2646,7 +2646,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="17">
         <f>IF(E29&lt;C9,E29+1," ")</f>
-        <v>43155</v>
+        <v>43161</v>
       </c>
       <c r="F30" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F29,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2681,7 +2681,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="17">
         <f>IF(E30&lt;C9,E30+1," ")</f>
-        <v>43156</v>
+        <v>43162</v>
       </c>
       <c r="F31" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F30,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2716,7 +2716,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="17">
         <f>IF(E31&lt;C9,E31+1," ")</f>
-        <v>43157</v>
+        <v>43163</v>
       </c>
       <c r="F32" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F31,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2751,7 +2751,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="17">
         <f>IF(E32&lt;C9,E32+1," ")</f>
-        <v>43158</v>
+        <v>43164</v>
       </c>
       <c r="F33" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F32,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2786,7 +2786,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="17">
         <f>IF(E33&lt;C9,E33+1," ")</f>
-        <v>43159</v>
+        <v>43165</v>
       </c>
       <c r="F34" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F33,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2821,7 +2821,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="17">
         <f>IF(E34&lt;C9,E34+1," ")</f>
-        <v>43160</v>
+        <v>43166</v>
       </c>
       <c r="F35" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F34,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2856,7 +2856,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="17">
         <f>IF(E35&lt;C9,E35+1," ")</f>
-        <v>43161</v>
+        <v>43167</v>
       </c>
       <c r="F36" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F35,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2891,7 +2891,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="17">
         <f>IF(E36&lt;C9,E36+1," ")</f>
-        <v>43162</v>
+        <v>43168</v>
       </c>
       <c r="F37" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F36,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2926,7 +2926,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="17">
         <f>IF(E37&lt;C9,E37+1," ")</f>
-        <v>43163</v>
+        <v>43169</v>
       </c>
       <c r="F38" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F37,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2961,7 +2961,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="17">
         <f>IF(E38&lt;C9,E38+1," ")</f>
-        <v>43164</v>
+        <v>43170</v>
       </c>
       <c r="F39" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F38,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -2996,7 +2996,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="17">
         <f>IF(E39&lt;C9,E39+1," ")</f>
-        <v>43165</v>
+        <v>43171</v>
       </c>
       <c r="F40" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F39,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3031,7 +3031,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="17">
         <f>IF(E40&lt;C9,E40+1," ")</f>
-        <v>43166</v>
+        <v>43172</v>
       </c>
       <c r="F41" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F40,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3066,7 +3066,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="17">
         <f>IF(E41&lt;C9,E41+1," ")</f>
-        <v>43167</v>
+        <v>43173</v>
       </c>
       <c r="F42" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F41,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3101,7 +3101,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="17">
         <f>IF(E42&lt;C9,E42+1," ")</f>
-        <v>43168</v>
+        <v>43174</v>
       </c>
       <c r="F43" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F42,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3136,7 +3136,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="17">
         <f>IF(E43&lt;C9,E43+1," ")</f>
-        <v>43169</v>
+        <v>43175</v>
       </c>
       <c r="F44" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F43,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3171,7 +3171,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="17">
         <f>IF(E44&lt;C9,E44+1," ")</f>
-        <v>43170</v>
+        <v>43176</v>
       </c>
       <c r="F45" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F44,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3206,7 +3206,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="17">
         <f>IF(E45&lt;C9,E45+1," ")</f>
-        <v>43171</v>
+        <v>43177</v>
       </c>
       <c r="F46" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F45,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3241,7 +3241,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="17">
         <f>IF(E46&lt;C9,E46+1," ")</f>
-        <v>43172</v>
+        <v>43178</v>
       </c>
       <c r="F47" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F46,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3276,7 +3276,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="17">
         <f>IF(E47&lt;C9,E47+1," ")</f>
-        <v>43173</v>
+        <v>43179</v>
       </c>
       <c r="F48" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F47,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3311,7 +3311,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="17">
         <f>IF(E48&lt;C9,E48+1," ")</f>
-        <v>43174</v>
+        <v>43180</v>
       </c>
       <c r="F49" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F48,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3346,7 +3346,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="17">
         <f>IF(E49&lt;C9,E49+1," ")</f>
-        <v>43175</v>
+        <v>43181</v>
       </c>
       <c r="F50" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F49,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3381,7 +3381,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="17">
         <f>IF(E50&lt;C9,E50+1," ")</f>
-        <v>43176</v>
+        <v>43182</v>
       </c>
       <c r="F51" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F50,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3416,7 +3416,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="17">
         <f>IF(E51&lt;C9,E51+1," ")</f>
-        <v>43177</v>
+        <v>43183</v>
       </c>
       <c r="F52" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F51,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3451,7 +3451,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="17">
         <f>IF(E52&lt;C9,E52+1," ")</f>
-        <v>43178</v>
+        <v>43184</v>
       </c>
       <c r="F53" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F52,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3486,7 +3486,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="17">
         <f>IF(E53&lt;C9,E53+1," ")</f>
-        <v>43179</v>
+        <v>43185</v>
       </c>
       <c r="F54" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F53,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3521,7 +3521,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="17">
         <f>IF(E54&lt;C9,E54+1," ")</f>
-        <v>43180</v>
+        <v>43186</v>
       </c>
       <c r="F55" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F54,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3556,7 +3556,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="17">
         <f>IF(E55&lt;C9,E55+1," ")</f>
-        <v>43181</v>
+        <v>43187</v>
       </c>
       <c r="F56" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F55,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3591,7 +3591,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="17">
         <f>IF(E56&lt;C9,E56+1," ")</f>
-        <v>43182</v>
+        <v>43188</v>
       </c>
       <c r="F57" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F56,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3626,7 +3626,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="17">
         <f>IF(E57&lt;C9,E57+1," ")</f>
-        <v>43183</v>
+        <v>43189</v>
       </c>
       <c r="F58" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F57,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3661,7 +3661,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="17">
         <f>IF(E58&lt;C9,E58+1," ")</f>
-        <v>43184</v>
+        <v>43190</v>
       </c>
       <c r="F59" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F58,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3696,7 +3696,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="17">
         <f>IF(E59&lt;C9,E59+1," ")</f>
-        <v>43185</v>
+        <v>43191</v>
       </c>
       <c r="F60" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F59,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3731,7 +3731,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="17">
         <f>IF(E60&lt;C9,E60+1," ")</f>
-        <v>43186</v>
+        <v>43192</v>
       </c>
       <c r="F61" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F60,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3766,7 +3766,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="17">
         <f>IF(E61&lt;C9,E61+1," ")</f>
-        <v>43187</v>
+        <v>43193</v>
       </c>
       <c r="F62" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F61,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3801,7 +3801,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="17">
         <f>IF(E62&lt;C9,E62+1," ")</f>
-        <v>43188</v>
+        <v>43194</v>
       </c>
       <c r="F63" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F62,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3836,7 +3836,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="17">
         <f>IF(E63&lt;C9,E63+1," ")</f>
-        <v>43189</v>
+        <v>43195</v>
       </c>
       <c r="F64" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F63,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3871,7 +3871,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="17">
         <f>IF(E64&lt;C9,E64+1," ")</f>
-        <v>43190</v>
+        <v>43196</v>
       </c>
       <c r="F65" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F64,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3906,7 +3906,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="17">
         <f>IF(E65&lt;C9,E65+1," ")</f>
-        <v>43191</v>
+        <v>43197</v>
       </c>
       <c r="F66" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F65,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3941,7 +3941,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="17">
         <f>IF(E66&lt;C9,E66+1," ")</f>
-        <v>43192</v>
+        <v>43198</v>
       </c>
       <c r="F67" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F66,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -3976,7 +3976,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="17">
         <f>IF(E67&lt;C9,E67+1," ")</f>
-        <v>43193</v>
+        <v>43199</v>
       </c>
       <c r="F68" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F67,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -4011,7 +4011,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="17">
         <f>IF(E68&lt;C9,E68+1," ")</f>
-        <v>43194</v>
+        <v>43200</v>
       </c>
       <c r="F69" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F68,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -4046,7 +4046,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="17">
         <f>IF(E69&lt;C9,E69+1," ")</f>
-        <v>43195</v>
+        <v>43201</v>
       </c>
       <c r="F70" s="27" t="e">
         <f>VLOOKUP(VLOOKUP(F69,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -4079,9 +4079,9 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="17">
+      <c r="E71" s="17" t="str">
         <f>IF(E70&lt;C9,E70+1," ")</f>
-        <v>43196</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F71" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F70,Data!A65:B313,2,FALSE)+C8,Data!D65:E313,2,FALSE)</f>
@@ -4114,9 +4114,9 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="17">
+      <c r="E72" s="17" t="str">
         <f>IF(E71&lt;C9,E71+1," ")</f>
-        <v>43197</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F72" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F71,Data!A65:B313,2,FALSE)+C8,Data!D65:E313,2,FALSE)</f>
@@ -4149,9 +4149,9 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="17">
+      <c r="E73" s="17" t="str">
         <f>IF(E72&lt;C9,E72+1," ")</f>
-        <v>43198</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F73" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F72,Data!A65:B313,2,FALSE)+C8,Data!D65:E313,2,FALSE)</f>
@@ -4184,9 +4184,9 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="17">
+      <c r="E74" s="17" t="str">
         <f>IF(E73&lt;C9,E73+1," ")</f>
-        <v>43199</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F74" s="27" t="e">
         <f>VLOOKUP(VLOOKUP(F73,Data!A65:B313,2,FALSE)+C8,Data!D65:E313,2,FALSE)</f>
@@ -4219,9 +4219,9 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="17">
+      <c r="E75" s="17" t="str">
         <f>IF(E74&lt;C9,E74+1," ")</f>
-        <v>43200</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F75" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F74,Data!A69:B317,2,FALSE)+C8,Data!D69:E317,2,FALSE)</f>
@@ -4254,9 +4254,9 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="17">
+      <c r="E76" s="17" t="str">
         <f>IF(E75&lt;C9,E75+1," ")</f>
-        <v>43201</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F76" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F75,Data!A69:B317,2,FALSE)+C8,Data!D69:E317,2,FALSE)</f>

--- a/Udacity Schedule Maker.xlsx
+++ b/Udacity Schedule Maker.xlsx
@@ -1743,7 +1743,7 @@
       </c>
       <c r="F5" s="14" t="str">
         <f>C6</f>
-        <v>15.26</v>
+        <v>17.1</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="40" t="str">
@@ -1776,7 +1776,7 @@
         <v>257</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="F6" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(C6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>16.4</v>
+        <v>18.4</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="42" t="str">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="C7" s="20">
         <f>248-VLOOKUP(C6,Data!A1:B249,2,FALSE)</f>
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="F7" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>16.8</v>
+        <v>18.8</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="43" t="str">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="F8" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F7,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>16.12</v>
+        <v>18.12</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="31" t="str">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="F9" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F8,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>18.2</v>
+        <v>19.3</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="33" t="str">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="F10" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F9,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>18.6</v>
+        <v>19.7</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F11" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F10,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>18.10</v>
+        <v>19.11</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="F12" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F11,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>19.1</v>
+        <v>19.15</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="F13" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F12,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>19.5</v>
+        <v>20.4</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="F14" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F13,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>19.9</v>
+        <v>20.8</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="F15" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F14,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>19.13</v>
+        <v>20.12</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2158,9 +2158,9 @@
         <f>IF(E15&lt;C9,E15+1," ")</f>
         <v>43147</v>
       </c>
-      <c r="F16" s="18" t="str">
+      <c r="F16" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F15,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>20.2</v>
+        <v>#N/A</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2193,9 +2193,9 @@
         <f>IF(E16&lt;C9,E16+1," ")</f>
         <v>43148</v>
       </c>
-      <c r="F17" s="18" t="str">
+      <c r="F17" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F16,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>20.6</v>
+        <v>#N/A</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2228,9 +2228,9 @@
         <f>IF(E17&lt;C9,E17+1," ")</f>
         <v>43149</v>
       </c>
-      <c r="F18" s="14" t="str">
+      <c r="F18" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F17,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>20.10</v>
+        <v>#N/A</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2263,9 +2263,9 @@
         <f>IF(E18&lt;C9,E18+1," ")</f>
         <v>43150</v>
       </c>
-      <c r="F19" s="18" t="str">
+      <c r="F19" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F18,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
-        <v>21.2</v>
+        <v>#N/A</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>

--- a/Udacity Schedule Maker.xlsx
+++ b/Udacity Schedule Maker.xlsx
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1734,16 +1734,16 @@
         <v>256</v>
       </c>
       <c r="C5" s="12">
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="13">
         <f>C5</f>
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="F5" s="14" t="str">
         <f>C6</f>
-        <v>17.1</v>
+        <v>18.13</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="40" t="str">
@@ -1776,16 +1776,16 @@
         <v>257</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17">
         <f>IF(E5&lt;C9,E5+1," ")</f>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="F6" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(C6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>18.4</v>
+        <v>19.4</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="42" t="str">
@@ -1819,16 +1819,16 @@
       </c>
       <c r="C7" s="20">
         <f>248-VLOOKUP(C6,Data!A1:B249,2,FALSE)</f>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17">
         <f>IF(E6&lt;C9,E6+1," ")</f>
-        <v>43138</v>
+        <v>43139</v>
       </c>
       <c r="F7" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="43" t="str">
@@ -1866,11 +1866,11 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17">
         <f>IF(E7&lt;C9,E7+1," ")</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="F8" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F7,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>18.12</v>
+        <v>19.12</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="31" t="str">
@@ -1908,11 +1908,11 @@
       <c r="D9" s="5"/>
       <c r="E9" s="17">
         <f>IF(E8&lt;C9,E8+1," ")</f>
-        <v>43140</v>
+        <v>43141</v>
       </c>
       <c r="F9" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F8,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>19.3</v>
+        <v>20.1</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="33" t="str">
@@ -1946,11 +1946,11 @@
       <c r="D10" s="5"/>
       <c r="E10" s="17">
         <f>IF(E9&lt;C9,E9+1," ")</f>
-        <v>43141</v>
+        <v>43142</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F9,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>19.7</v>
+        <v>20.5</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1981,11 +1981,11 @@
       <c r="D11" s="5"/>
       <c r="E11" s="17">
         <f>IF(E10&lt;C9,E10+1," ")</f>
-        <v>43142</v>
+        <v>43143</v>
       </c>
       <c r="F11" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F10,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>19.11</v>
+        <v>20.9</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2016,11 +2016,11 @@
       <c r="D12" s="5"/>
       <c r="E12" s="17">
         <f>IF(E11&lt;C9,E11+1," ")</f>
-        <v>43143</v>
+        <v>43144</v>
       </c>
       <c r="F12" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F11,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>19.15</v>
+        <v>21.1</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2051,11 +2051,11 @@
       <c r="D13" s="5"/>
       <c r="E13" s="17">
         <f>IF(E12&lt;C9,E12+1," ")</f>
-        <v>43144</v>
-      </c>
-      <c r="F13" s="18" t="str">
+        <v>43145</v>
+      </c>
+      <c r="F13" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F12,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>20.4</v>
+        <v>#N/A</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2086,11 +2086,11 @@
       <c r="D14" s="5"/>
       <c r="E14" s="17">
         <f>IF(E13&lt;C9,E13+1," ")</f>
-        <v>43145</v>
-      </c>
-      <c r="F14" s="14" t="str">
+        <v>43146</v>
+      </c>
+      <c r="F14" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F13,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>20.8</v>
+        <v>#N/A</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2121,11 +2121,11 @@
       <c r="D15" s="5"/>
       <c r="E15" s="17">
         <f>IF(E14&lt;C9,E14+1," ")</f>
-        <v>43146</v>
-      </c>
-      <c r="F15" s="18" t="str">
+        <v>43147</v>
+      </c>
+      <c r="F15" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F14,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
-        <v>20.12</v>
+        <v>#N/A</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2156,7 +2156,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="17">
         <f>IF(E15&lt;C9,E15+1," ")</f>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="F16" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F15,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
@@ -2191,7 +2191,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="17">
         <f>IF(E16&lt;C9,E16+1," ")</f>
-        <v>43148</v>
+        <v>43149</v>
       </c>
       <c r="F17" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F16,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
@@ -2226,7 +2226,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="17">
         <f>IF(E17&lt;C9,E17+1," ")</f>
-        <v>43149</v>
+        <v>43150</v>
       </c>
       <c r="F18" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F17,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
@@ -2261,7 +2261,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="17">
         <f>IF(E18&lt;C9,E18+1," ")</f>
-        <v>43150</v>
+        <v>43151</v>
       </c>
       <c r="F19" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F18,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
@@ -2296,7 +2296,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="17">
         <f>IF(E19&lt;C9,E19+1," ")</f>
-        <v>43151</v>
+        <v>43152</v>
       </c>
       <c r="F20" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F19,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
@@ -2331,7 +2331,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="17">
         <f>IF(E20&lt;C9,E20+1," ")</f>
-        <v>43152</v>
+        <v>43153</v>
       </c>
       <c r="F21" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F20,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
@@ -2366,7 +2366,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="17">
         <f>IF(E21&lt;C9,E21+1," ")</f>
-        <v>43153</v>
+        <v>43154</v>
       </c>
       <c r="F22" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F21,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
@@ -2401,7 +2401,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="17">
         <f>IF(E22&lt;C9,E22+1," ")</f>
-        <v>43154</v>
+        <v>43155</v>
       </c>
       <c r="F23" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F22,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2436,7 +2436,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="17">
         <f>IF(E23&lt;C9,E23+1," ")</f>
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="F24" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F23,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2471,7 +2471,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="17">
         <f>IF(E24&lt;C9,E24+1," ")</f>
-        <v>43156</v>
+        <v>43157</v>
       </c>
       <c r="F25" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F24,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2506,7 +2506,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="17">
         <f>IF(E25&lt;C9,E25+1," ")</f>
-        <v>43157</v>
+        <v>43158</v>
       </c>
       <c r="F26" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F25,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2541,7 +2541,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="17">
         <f>IF(E26&lt;C9,E26+1," ")</f>
-        <v>43158</v>
+        <v>43159</v>
       </c>
       <c r="F27" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F26,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2576,7 +2576,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="17">
         <f>IF(E27&lt;C9,E27+1," ")</f>
-        <v>43159</v>
+        <v>43160</v>
       </c>
       <c r="F28" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F27,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2611,7 +2611,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="17">
         <f>IF(E28&lt;C9,E28+1," ")</f>
-        <v>43160</v>
+        <v>43161</v>
       </c>
       <c r="F29" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F28,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2646,7 +2646,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="17">
         <f>IF(E29&lt;C9,E29+1," ")</f>
-        <v>43161</v>
+        <v>43162</v>
       </c>
       <c r="F30" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F29,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2681,7 +2681,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="17">
         <f>IF(E30&lt;C9,E30+1," ")</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="F31" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F30,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2716,7 +2716,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="17">
         <f>IF(E31&lt;C9,E31+1," ")</f>
-        <v>43163</v>
+        <v>43164</v>
       </c>
       <c r="F32" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F31,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2751,7 +2751,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="17">
         <f>IF(E32&lt;C9,E32+1," ")</f>
-        <v>43164</v>
+        <v>43165</v>
       </c>
       <c r="F33" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F32,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2786,7 +2786,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="17">
         <f>IF(E33&lt;C9,E33+1," ")</f>
-        <v>43165</v>
+        <v>43166</v>
       </c>
       <c r="F34" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F33,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2821,7 +2821,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="17">
         <f>IF(E34&lt;C9,E34+1," ")</f>
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="F35" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F34,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2856,7 +2856,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="17">
         <f>IF(E35&lt;C9,E35+1," ")</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="F36" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F35,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2891,7 +2891,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="17">
         <f>IF(E36&lt;C9,E36+1," ")</f>
-        <v>43168</v>
+        <v>43169</v>
       </c>
       <c r="F37" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F36,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2926,7 +2926,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="17">
         <f>IF(E37&lt;C9,E37+1," ")</f>
-        <v>43169</v>
+        <v>43170</v>
       </c>
       <c r="F38" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F37,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2961,7 +2961,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="17">
         <f>IF(E38&lt;C9,E38+1," ")</f>
-        <v>43170</v>
+        <v>43171</v>
       </c>
       <c r="F39" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F38,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -2996,7 +2996,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="17">
         <f>IF(E39&lt;C9,E39+1," ")</f>
-        <v>43171</v>
+        <v>43172</v>
       </c>
       <c r="F40" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F39,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3031,7 +3031,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="17">
         <f>IF(E40&lt;C9,E40+1," ")</f>
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="F41" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F40,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3066,7 +3066,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="17">
         <f>IF(E41&lt;C9,E41+1," ")</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F42" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F41,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3101,7 +3101,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="17">
         <f>IF(E42&lt;C9,E42+1," ")</f>
-        <v>43174</v>
+        <v>43175</v>
       </c>
       <c r="F43" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F42,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3136,7 +3136,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="17">
         <f>IF(E43&lt;C9,E43+1," ")</f>
-        <v>43175</v>
+        <v>43176</v>
       </c>
       <c r="F44" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F43,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3171,7 +3171,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="17">
         <f>IF(E44&lt;C9,E44+1," ")</f>
-        <v>43176</v>
+        <v>43177</v>
       </c>
       <c r="F45" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F44,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3206,7 +3206,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="17">
         <f>IF(E45&lt;C9,E45+1," ")</f>
-        <v>43177</v>
+        <v>43178</v>
       </c>
       <c r="F46" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F45,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3241,7 +3241,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="17">
         <f>IF(E46&lt;C9,E46+1," ")</f>
-        <v>43178</v>
+        <v>43179</v>
       </c>
       <c r="F47" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F46,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3276,7 +3276,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="17">
         <f>IF(E47&lt;C9,E47+1," ")</f>
-        <v>43179</v>
+        <v>43180</v>
       </c>
       <c r="F48" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F47,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3311,7 +3311,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="17">
         <f>IF(E48&lt;C9,E48+1," ")</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F49" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F48,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3346,7 +3346,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="17">
         <f>IF(E49&lt;C9,E49+1," ")</f>
-        <v>43181</v>
+        <v>43182</v>
       </c>
       <c r="F50" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F49,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3381,7 +3381,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="17">
         <f>IF(E50&lt;C9,E50+1," ")</f>
-        <v>43182</v>
+        <v>43183</v>
       </c>
       <c r="F51" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F50,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3416,7 +3416,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="17">
         <f>IF(E51&lt;C9,E51+1," ")</f>
-        <v>43183</v>
+        <v>43184</v>
       </c>
       <c r="F52" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F51,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3451,7 +3451,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="17">
         <f>IF(E52&lt;C9,E52+1," ")</f>
-        <v>43184</v>
+        <v>43185</v>
       </c>
       <c r="F53" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F52,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3486,7 +3486,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="17">
         <f>IF(E53&lt;C9,E53+1," ")</f>
-        <v>43185</v>
+        <v>43186</v>
       </c>
       <c r="F54" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F53,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3521,7 +3521,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="17">
         <f>IF(E54&lt;C9,E54+1," ")</f>
-        <v>43186</v>
+        <v>43187</v>
       </c>
       <c r="F55" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F54,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3556,7 +3556,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="17">
         <f>IF(E55&lt;C9,E55+1," ")</f>
-        <v>43187</v>
+        <v>43188</v>
       </c>
       <c r="F56" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F55,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3591,7 +3591,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="17">
         <f>IF(E56&lt;C9,E56+1," ")</f>
-        <v>43188</v>
+        <v>43189</v>
       </c>
       <c r="F57" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F56,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3626,7 +3626,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="17">
         <f>IF(E57&lt;C9,E57+1," ")</f>
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="F58" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F57,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3661,7 +3661,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="17">
         <f>IF(E58&lt;C9,E58+1," ")</f>
-        <v>43190</v>
+        <v>43191</v>
       </c>
       <c r="F59" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F58,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3696,7 +3696,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="17">
         <f>IF(E59&lt;C9,E59+1," ")</f>
-        <v>43191</v>
+        <v>43192</v>
       </c>
       <c r="F60" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F59,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3731,7 +3731,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="17">
         <f>IF(E60&lt;C9,E60+1," ")</f>
-        <v>43192</v>
+        <v>43193</v>
       </c>
       <c r="F61" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F60,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3766,7 +3766,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="17">
         <f>IF(E61&lt;C9,E61+1," ")</f>
-        <v>43193</v>
+        <v>43194</v>
       </c>
       <c r="F62" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F61,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3801,7 +3801,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="17">
         <f>IF(E62&lt;C9,E62+1," ")</f>
-        <v>43194</v>
+        <v>43195</v>
       </c>
       <c r="F63" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F62,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3836,7 +3836,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="17">
         <f>IF(E63&lt;C9,E63+1," ")</f>
-        <v>43195</v>
+        <v>43196</v>
       </c>
       <c r="F64" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F63,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3871,7 +3871,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="17">
         <f>IF(E64&lt;C9,E64+1," ")</f>
-        <v>43196</v>
+        <v>43197</v>
       </c>
       <c r="F65" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F64,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3906,7 +3906,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="17">
         <f>IF(E65&lt;C9,E65+1," ")</f>
-        <v>43197</v>
+        <v>43198</v>
       </c>
       <c r="F66" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F65,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3941,7 +3941,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="17">
         <f>IF(E66&lt;C9,E66+1," ")</f>
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="F67" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F66,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -3976,7 +3976,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="17">
         <f>IF(E67&lt;C9,E67+1," ")</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="F68" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F67,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -4011,7 +4011,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="17">
         <f>IF(E68&lt;C9,E68+1," ")</f>
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="F69" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F68,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -4044,9 +4044,9 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="17">
+      <c r="E70" s="17" t="str">
         <f>IF(E69&lt;C9,E69+1," ")</f>
-        <v>43201</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F70" s="27" t="e">
         <f>VLOOKUP(VLOOKUP(F69,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>

--- a/Udacity Schedule Maker.xlsx
+++ b/Udacity Schedule Maker.xlsx
@@ -1743,7 +1743,7 @@
       </c>
       <c r="F5" s="14" t="str">
         <f>C6</f>
-        <v>18.13</v>
+        <v>19.8</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="40" t="str">
@@ -1776,7 +1776,7 @@
         <v>257</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="F6" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(C6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>19.4</v>
+        <v>19.12</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="42" t="str">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="C7" s="20">
         <f>248-VLOOKUP(C6,Data!A1:B249,2,FALSE)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="F7" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="43" t="str">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="F8" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F7,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>19.12</v>
+        <v>20.5</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="31" t="str">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="F9" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F8,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>20.1</v>
+        <v>20.9</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="33" t="str">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="F10" s="14" t="str">
         <f>VLOOKUP(VLOOKUP(F9,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>20.5</v>
+        <v>21.1</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1983,9 +1983,9 @@
         <f>IF(E10&lt;C9,E10+1," ")</f>
         <v>43143</v>
       </c>
-      <c r="F11" s="18" t="str">
+      <c r="F11" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F10,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>20.9</v>
+        <v>#N/A</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2018,9 +2018,9 @@
         <f>IF(E11&lt;C9,E11+1," ")</f>
         <v>43144</v>
       </c>
-      <c r="F12" s="18" t="str">
+      <c r="F12" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F11,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
-        <v>21.1</v>
+        <v>#N/A</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>

--- a/Udacity Schedule Maker.xlsx
+++ b/Udacity Schedule Maker.xlsx
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1734,16 +1734,16 @@
         <v>256</v>
       </c>
       <c r="C5" s="12">
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="13">
         <f>C5</f>
-        <v>43137</v>
+        <v>43138</v>
       </c>
       <c r="F5" s="14" t="str">
         <f>C6</f>
-        <v>19.8</v>
+        <v>19.15</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="40" t="str">
@@ -1776,16 +1776,16 @@
         <v>257</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17">
         <f>IF(E5&lt;C9,E5+1," ")</f>
-        <v>43138</v>
+        <v>43139</v>
       </c>
       <c r="F6" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(C6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>19.12</v>
+        <v>20.4</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="42" t="str">
@@ -1819,16 +1819,16 @@
       </c>
       <c r="C7" s="20">
         <f>248-VLOOKUP(C6,Data!A1:B249,2,FALSE)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17">
         <f>IF(E6&lt;C9,E6+1," ")</f>
-        <v>43139</v>
+        <v>43140</v>
       </c>
       <c r="F7" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>20.1</v>
+        <v>20.8</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="43" t="str">
@@ -1866,11 +1866,11 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17">
         <f>IF(E7&lt;C9,E7+1," ")</f>
-        <v>43140</v>
+        <v>43141</v>
       </c>
       <c r="F8" s="18" t="str">
         <f>VLOOKUP(VLOOKUP(F7,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>20.5</v>
+        <v>20.12</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="31" t="str">
@@ -1908,11 +1908,11 @@
       <c r="D9" s="5"/>
       <c r="E9" s="17">
         <f>IF(E8&lt;C9,E8+1," ")</f>
-        <v>43141</v>
-      </c>
-      <c r="F9" s="18" t="str">
+        <v>43142</v>
+      </c>
+      <c r="F9" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F8,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>20.9</v>
+        <v>#N/A</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="33" t="str">
@@ -1946,11 +1946,11 @@
       <c r="D10" s="5"/>
       <c r="E10" s="17">
         <f>IF(E9&lt;C9,E9+1," ")</f>
-        <v>43142</v>
-      </c>
-      <c r="F10" s="14" t="str">
+        <v>43143</v>
+      </c>
+      <c r="F10" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F9,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>21.1</v>
+        <v>#N/A</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1981,7 +1981,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="17">
         <f>IF(E10&lt;C9,E10+1," ")</f>
-        <v>43143</v>
+        <v>43144</v>
       </c>
       <c r="F11" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F10,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
@@ -2016,7 +2016,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="17">
         <f>IF(E11&lt;C9,E11+1," ")</f>
-        <v>43144</v>
+        <v>43145</v>
       </c>
       <c r="F12" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F11,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
@@ -2051,7 +2051,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="17">
         <f>IF(E12&lt;C9,E12+1," ")</f>
-        <v>43145</v>
+        <v>43146</v>
       </c>
       <c r="F13" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F12,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
@@ -2086,7 +2086,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="17">
         <f>IF(E13&lt;C9,E13+1," ")</f>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="F14" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F13,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
@@ -2121,7 +2121,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="17">
         <f>IF(E14&lt;C9,E14+1," ")</f>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="F15" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F14,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
@@ -2156,7 +2156,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="17">
         <f>IF(E15&lt;C9,E15+1," ")</f>
-        <v>43148</v>
+        <v>43149</v>
       </c>
       <c r="F16" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F15,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
@@ -2191,7 +2191,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="17">
         <f>IF(E16&lt;C9,E16+1," ")</f>
-        <v>43149</v>
+        <v>43150</v>
       </c>
       <c r="F17" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F16,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
@@ -2226,7 +2226,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="17">
         <f>IF(E17&lt;C9,E17+1," ")</f>
-        <v>43150</v>
+        <v>43151</v>
       </c>
       <c r="F18" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F17,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
@@ -2261,7 +2261,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="17">
         <f>IF(E18&lt;C9,E18+1," ")</f>
-        <v>43151</v>
+        <v>43152</v>
       </c>
       <c r="F19" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F18,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
@@ -2296,7 +2296,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="17">
         <f>IF(E19&lt;C9,E19+1," ")</f>
-        <v>43152</v>
+        <v>43153</v>
       </c>
       <c r="F20" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F19,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
@@ -2331,7 +2331,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="17">
         <f>IF(E20&lt;C9,E20+1," ")</f>
-        <v>43153</v>
+        <v>43154</v>
       </c>
       <c r="F21" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F20,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
@@ -2366,7 +2366,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="17">
         <f>IF(E21&lt;C9,E21+1," ")</f>
-        <v>43154</v>
+        <v>43155</v>
       </c>
       <c r="F22" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F21,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
@@ -2401,7 +2401,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="17">
         <f>IF(E22&lt;C9,E22+1," ")</f>
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="F23" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F22,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2436,7 +2436,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="17">
         <f>IF(E23&lt;C9,E23+1," ")</f>
-        <v>43156</v>
+        <v>43157</v>
       </c>
       <c r="F24" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F23,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2471,7 +2471,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="17">
         <f>IF(E24&lt;C9,E24+1," ")</f>
-        <v>43157</v>
+        <v>43158</v>
       </c>
       <c r="F25" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F24,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2506,7 +2506,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="17">
         <f>IF(E25&lt;C9,E25+1," ")</f>
-        <v>43158</v>
+        <v>43159</v>
       </c>
       <c r="F26" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F25,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2541,7 +2541,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="17">
         <f>IF(E26&lt;C9,E26+1," ")</f>
-        <v>43159</v>
+        <v>43160</v>
       </c>
       <c r="F27" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F26,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2576,7 +2576,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="17">
         <f>IF(E27&lt;C9,E27+1," ")</f>
-        <v>43160</v>
+        <v>43161</v>
       </c>
       <c r="F28" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F27,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2611,7 +2611,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="17">
         <f>IF(E28&lt;C9,E28+1," ")</f>
-        <v>43161</v>
+        <v>43162</v>
       </c>
       <c r="F29" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F28,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2646,7 +2646,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="17">
         <f>IF(E29&lt;C9,E29+1," ")</f>
-        <v>43162</v>
+        <v>43163</v>
       </c>
       <c r="F30" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F29,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2681,7 +2681,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="17">
         <f>IF(E30&lt;C9,E30+1," ")</f>
-        <v>43163</v>
+        <v>43164</v>
       </c>
       <c r="F31" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F30,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2716,7 +2716,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="17">
         <f>IF(E31&lt;C9,E31+1," ")</f>
-        <v>43164</v>
+        <v>43165</v>
       </c>
       <c r="F32" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F31,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2751,7 +2751,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="17">
         <f>IF(E32&lt;C9,E32+1," ")</f>
-        <v>43165</v>
+        <v>43166</v>
       </c>
       <c r="F33" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F32,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2786,7 +2786,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="17">
         <f>IF(E33&lt;C9,E33+1," ")</f>
-        <v>43166</v>
+        <v>43167</v>
       </c>
       <c r="F34" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F33,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2821,7 +2821,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="17">
         <f>IF(E34&lt;C9,E34+1," ")</f>
-        <v>43167</v>
+        <v>43168</v>
       </c>
       <c r="F35" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F34,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2856,7 +2856,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="17">
         <f>IF(E35&lt;C9,E35+1," ")</f>
-        <v>43168</v>
+        <v>43169</v>
       </c>
       <c r="F36" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F35,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2891,7 +2891,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="17">
         <f>IF(E36&lt;C9,E36+1," ")</f>
-        <v>43169</v>
+        <v>43170</v>
       </c>
       <c r="F37" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F36,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2926,7 +2926,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="17">
         <f>IF(E37&lt;C9,E37+1," ")</f>
-        <v>43170</v>
+        <v>43171</v>
       </c>
       <c r="F38" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F37,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2961,7 +2961,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="17">
         <f>IF(E38&lt;C9,E38+1," ")</f>
-        <v>43171</v>
+        <v>43172</v>
       </c>
       <c r="F39" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F38,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -2996,7 +2996,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="17">
         <f>IF(E39&lt;C9,E39+1," ")</f>
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="F40" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F39,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3031,7 +3031,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="17">
         <f>IF(E40&lt;C9,E40+1," ")</f>
-        <v>43173</v>
+        <v>43174</v>
       </c>
       <c r="F41" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F40,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3066,7 +3066,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="17">
         <f>IF(E41&lt;C9,E41+1," ")</f>
-        <v>43174</v>
+        <v>43175</v>
       </c>
       <c r="F42" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F41,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3101,7 +3101,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="17">
         <f>IF(E42&lt;C9,E42+1," ")</f>
-        <v>43175</v>
+        <v>43176</v>
       </c>
       <c r="F43" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F42,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3136,7 +3136,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="17">
         <f>IF(E43&lt;C9,E43+1," ")</f>
-        <v>43176</v>
+        <v>43177</v>
       </c>
       <c r="F44" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F43,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3171,7 +3171,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="17">
         <f>IF(E44&lt;C9,E44+1," ")</f>
-        <v>43177</v>
+        <v>43178</v>
       </c>
       <c r="F45" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F44,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3206,7 +3206,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="17">
         <f>IF(E45&lt;C9,E45+1," ")</f>
-        <v>43178</v>
+        <v>43179</v>
       </c>
       <c r="F46" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F45,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3241,7 +3241,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="17">
         <f>IF(E46&lt;C9,E46+1," ")</f>
-        <v>43179</v>
+        <v>43180</v>
       </c>
       <c r="F47" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F46,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3276,7 +3276,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="17">
         <f>IF(E47&lt;C9,E47+1," ")</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F48" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F47,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3311,7 +3311,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="17">
         <f>IF(E48&lt;C9,E48+1," ")</f>
-        <v>43181</v>
+        <v>43182</v>
       </c>
       <c r="F49" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F48,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3346,7 +3346,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="17">
         <f>IF(E49&lt;C9,E49+1," ")</f>
-        <v>43182</v>
+        <v>43183</v>
       </c>
       <c r="F50" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F49,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3381,7 +3381,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="17">
         <f>IF(E50&lt;C9,E50+1," ")</f>
-        <v>43183</v>
+        <v>43184</v>
       </c>
       <c r="F51" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F50,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3416,7 +3416,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="17">
         <f>IF(E51&lt;C9,E51+1," ")</f>
-        <v>43184</v>
+        <v>43185</v>
       </c>
       <c r="F52" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F51,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3451,7 +3451,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="17">
         <f>IF(E52&lt;C9,E52+1," ")</f>
-        <v>43185</v>
+        <v>43186</v>
       </c>
       <c r="F53" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F52,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3486,7 +3486,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="17">
         <f>IF(E53&lt;C9,E53+1," ")</f>
-        <v>43186</v>
+        <v>43187</v>
       </c>
       <c r="F54" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F53,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3521,7 +3521,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="17">
         <f>IF(E54&lt;C9,E54+1," ")</f>
-        <v>43187</v>
+        <v>43188</v>
       </c>
       <c r="F55" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F54,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3556,7 +3556,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="17">
         <f>IF(E55&lt;C9,E55+1," ")</f>
-        <v>43188</v>
+        <v>43189</v>
       </c>
       <c r="F56" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F55,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3591,7 +3591,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="17">
         <f>IF(E56&lt;C9,E56+1," ")</f>
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="F57" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F56,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3626,7 +3626,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="17">
         <f>IF(E57&lt;C9,E57+1," ")</f>
-        <v>43190</v>
+        <v>43191</v>
       </c>
       <c r="F58" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F57,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3661,7 +3661,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="17">
         <f>IF(E58&lt;C9,E58+1," ")</f>
-        <v>43191</v>
+        <v>43192</v>
       </c>
       <c r="F59" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F58,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3696,7 +3696,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="17">
         <f>IF(E59&lt;C9,E59+1," ")</f>
-        <v>43192</v>
+        <v>43193</v>
       </c>
       <c r="F60" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F59,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3731,7 +3731,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="17">
         <f>IF(E60&lt;C9,E60+1," ")</f>
-        <v>43193</v>
+        <v>43194</v>
       </c>
       <c r="F61" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F60,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3766,7 +3766,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="17">
         <f>IF(E61&lt;C9,E61+1," ")</f>
-        <v>43194</v>
+        <v>43195</v>
       </c>
       <c r="F62" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F61,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3801,7 +3801,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="17">
         <f>IF(E62&lt;C9,E62+1," ")</f>
-        <v>43195</v>
+        <v>43196</v>
       </c>
       <c r="F63" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F62,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3836,7 +3836,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="17">
         <f>IF(E63&lt;C9,E63+1," ")</f>
-        <v>43196</v>
+        <v>43197</v>
       </c>
       <c r="F64" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F63,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3871,7 +3871,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="17">
         <f>IF(E64&lt;C9,E64+1," ")</f>
-        <v>43197</v>
+        <v>43198</v>
       </c>
       <c r="F65" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F64,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3906,7 +3906,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="17">
         <f>IF(E65&lt;C9,E65+1," ")</f>
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="F66" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F65,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3941,7 +3941,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="17">
         <f>IF(E66&lt;C9,E66+1," ")</f>
-        <v>43199</v>
+        <v>43200</v>
       </c>
       <c r="F67" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F66,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -3976,7 +3976,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="17">
         <f>IF(E67&lt;C9,E67+1," ")</f>
-        <v>43200</v>
+        <v>43201</v>
       </c>
       <c r="F68" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F67,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -4009,9 +4009,9 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="17">
+      <c r="E69" s="17" t="str">
         <f>IF(E68&lt;C9,E68+1," ")</f>
-        <v>43201</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F69" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F68,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>

--- a/Udacity Schedule Maker.xlsx
+++ b/Udacity Schedule Maker.xlsx
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1734,16 +1734,16 @@
         <v>256</v>
       </c>
       <c r="C5" s="12">
-        <v>43138</v>
+        <v>43140</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="13">
         <f>C5</f>
-        <v>43138</v>
+        <v>43140</v>
       </c>
       <c r="F5" s="14" t="str">
         <f>C6</f>
-        <v>19.15</v>
+        <v>20.12</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="40" t="str">
@@ -1776,16 +1776,16 @@
         <v>257</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="17">
         <f>IF(E5&lt;C9,E5+1," ")</f>
-        <v>43139</v>
-      </c>
-      <c r="F6" s="18" t="str">
+        <v>43141</v>
+      </c>
+      <c r="F6" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(C6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>20.4</v>
+        <v>#N/A</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="42" t="str">
@@ -1819,16 +1819,16 @@
       </c>
       <c r="C7" s="20">
         <f>248-VLOOKUP(C6,Data!A1:B249,2,FALSE)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17">
         <f>IF(E6&lt;C9,E6+1," ")</f>
-        <v>43140</v>
-      </c>
-      <c r="F7" s="18" t="str">
+        <v>43142</v>
+      </c>
+      <c r="F7" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F6,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>20.8</v>
+        <v>#N/A</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="43" t="str">
@@ -1866,11 +1866,11 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17">
         <f>IF(E7&lt;C9,E7+1," ")</f>
-        <v>43141</v>
-      </c>
-      <c r="F8" s="18" t="str">
+        <v>43143</v>
+      </c>
+      <c r="F8" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F7,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
-        <v>20.12</v>
+        <v>#N/A</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="31" t="str">
@@ -1908,7 +1908,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="17">
         <f>IF(E8&lt;C9,E8+1," ")</f>
-        <v>43142</v>
+        <v>43144</v>
       </c>
       <c r="F9" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F8,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
@@ -1946,7 +1946,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="17">
         <f>IF(E9&lt;C9,E9+1," ")</f>
-        <v>43143</v>
+        <v>43145</v>
       </c>
       <c r="F10" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F9,Data!A1:B249,2,FALSE)+C8,Data!D1:E249,2,FALSE)</f>
@@ -1981,7 +1981,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="17">
         <f>IF(E10&lt;C9,E10+1," ")</f>
-        <v>43144</v>
+        <v>43146</v>
       </c>
       <c r="F11" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F10,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
@@ -2016,7 +2016,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="17">
         <f>IF(E11&lt;C9,E11+1," ")</f>
-        <v>43145</v>
+        <v>43147</v>
       </c>
       <c r="F12" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F11,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
@@ -2051,7 +2051,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="17">
         <f>IF(E12&lt;C9,E12+1," ")</f>
-        <v>43146</v>
+        <v>43148</v>
       </c>
       <c r="F13" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F12,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
@@ -2086,7 +2086,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="17">
         <f>IF(E13&lt;C9,E13+1," ")</f>
-        <v>43147</v>
+        <v>43149</v>
       </c>
       <c r="F14" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F13,Data!A5:B253,2,FALSE)+C8,Data!D5:E253,2,FALSE)</f>
@@ -2121,7 +2121,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="17">
         <f>IF(E14&lt;C9,E14+1," ")</f>
-        <v>43148</v>
+        <v>43150</v>
       </c>
       <c r="F15" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F14,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
@@ -2156,7 +2156,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="17">
         <f>IF(E15&lt;C9,E15+1," ")</f>
-        <v>43149</v>
+        <v>43151</v>
       </c>
       <c r="F16" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F15,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
@@ -2191,7 +2191,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="17">
         <f>IF(E16&lt;C9,E16+1," ")</f>
-        <v>43150</v>
+        <v>43152</v>
       </c>
       <c r="F17" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F16,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
@@ -2226,7 +2226,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="17">
         <f>IF(E17&lt;C9,E17+1," ")</f>
-        <v>43151</v>
+        <v>43153</v>
       </c>
       <c r="F18" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F17,Data!A9:B257,2,FALSE)+C8,Data!D9:E257,2,FALSE)</f>
@@ -2261,7 +2261,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="17">
         <f>IF(E18&lt;C9,E18+1," ")</f>
-        <v>43152</v>
+        <v>43154</v>
       </c>
       <c r="F19" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F18,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
@@ -2296,7 +2296,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="17">
         <f>IF(E19&lt;C9,E19+1," ")</f>
-        <v>43153</v>
+        <v>43155</v>
       </c>
       <c r="F20" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F19,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
@@ -2331,7 +2331,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="17">
         <f>IF(E20&lt;C9,E20+1," ")</f>
-        <v>43154</v>
+        <v>43156</v>
       </c>
       <c r="F21" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F20,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
@@ -2366,7 +2366,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="17">
         <f>IF(E21&lt;C9,E21+1," ")</f>
-        <v>43155</v>
+        <v>43157</v>
       </c>
       <c r="F22" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F21,Data!A13:B261,2,FALSE)+C8,Data!D13:E261,2,FALSE)</f>
@@ -2401,7 +2401,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="17">
         <f>IF(E22&lt;C9,E22+1," ")</f>
-        <v>43156</v>
+        <v>43158</v>
       </c>
       <c r="F23" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F22,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2436,7 +2436,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="17">
         <f>IF(E23&lt;C9,E23+1," ")</f>
-        <v>43157</v>
+        <v>43159</v>
       </c>
       <c r="F24" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F23,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2471,7 +2471,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="17">
         <f>IF(E24&lt;C9,E24+1," ")</f>
-        <v>43158</v>
+        <v>43160</v>
       </c>
       <c r="F25" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F24,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2506,7 +2506,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="17">
         <f>IF(E25&lt;C9,E25+1," ")</f>
-        <v>43159</v>
+        <v>43161</v>
       </c>
       <c r="F26" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F25,Data!A17:B265,2,FALSE)+C8,Data!D17:E265,2,FALSE)</f>
@@ -2541,7 +2541,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="17">
         <f>IF(E26&lt;C9,E26+1," ")</f>
-        <v>43160</v>
+        <v>43162</v>
       </c>
       <c r="F27" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F26,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2576,7 +2576,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="17">
         <f>IF(E27&lt;C9,E27+1," ")</f>
-        <v>43161</v>
+        <v>43163</v>
       </c>
       <c r="F28" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F27,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2611,7 +2611,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="17">
         <f>IF(E28&lt;C9,E28+1," ")</f>
-        <v>43162</v>
+        <v>43164</v>
       </c>
       <c r="F29" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F28,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2646,7 +2646,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="17">
         <f>IF(E29&lt;C9,E29+1," ")</f>
-        <v>43163</v>
+        <v>43165</v>
       </c>
       <c r="F30" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F29,Data!A21:B269,2,FALSE)+C8,Data!D21:E269,2,FALSE)</f>
@@ -2681,7 +2681,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="17">
         <f>IF(E30&lt;C9,E30+1," ")</f>
-        <v>43164</v>
+        <v>43166</v>
       </c>
       <c r="F31" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F30,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2716,7 +2716,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="17">
         <f>IF(E31&lt;C9,E31+1," ")</f>
-        <v>43165</v>
+        <v>43167</v>
       </c>
       <c r="F32" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F31,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2751,7 +2751,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="17">
         <f>IF(E32&lt;C9,E32+1," ")</f>
-        <v>43166</v>
+        <v>43168</v>
       </c>
       <c r="F33" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F32,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2786,7 +2786,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="17">
         <f>IF(E33&lt;C9,E33+1," ")</f>
-        <v>43167</v>
+        <v>43169</v>
       </c>
       <c r="F34" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F33,Data!A25:B273,2,FALSE)+C8,Data!D25:E273,2,FALSE)</f>
@@ -2821,7 +2821,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="17">
         <f>IF(E34&lt;C9,E34+1," ")</f>
-        <v>43168</v>
+        <v>43170</v>
       </c>
       <c r="F35" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F34,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2856,7 +2856,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="17">
         <f>IF(E35&lt;C9,E35+1," ")</f>
-        <v>43169</v>
+        <v>43171</v>
       </c>
       <c r="F36" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F35,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2891,7 +2891,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="17">
         <f>IF(E36&lt;C9,E36+1," ")</f>
-        <v>43170</v>
+        <v>43172</v>
       </c>
       <c r="F37" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F36,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2926,7 +2926,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="17">
         <f>IF(E37&lt;C9,E37+1," ")</f>
-        <v>43171</v>
+        <v>43173</v>
       </c>
       <c r="F38" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F37,Data!A29:B277,2,FALSE)+C8,Data!D29:E277,2,FALSE)</f>
@@ -2961,7 +2961,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="17">
         <f>IF(E38&lt;C9,E38+1," ")</f>
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F39" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F38,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -2996,7 +2996,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="17">
         <f>IF(E39&lt;C9,E39+1," ")</f>
-        <v>43173</v>
+        <v>43175</v>
       </c>
       <c r="F40" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F39,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3031,7 +3031,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="17">
         <f>IF(E40&lt;C9,E40+1," ")</f>
-        <v>43174</v>
+        <v>43176</v>
       </c>
       <c r="F41" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F40,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3066,7 +3066,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="17">
         <f>IF(E41&lt;C9,E41+1," ")</f>
-        <v>43175</v>
+        <v>43177</v>
       </c>
       <c r="F42" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F41,Data!A33:B281,2,FALSE)+C8,Data!D33:E281,2,FALSE)</f>
@@ -3101,7 +3101,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="17">
         <f>IF(E42&lt;C9,E42+1," ")</f>
-        <v>43176</v>
+        <v>43178</v>
       </c>
       <c r="F43" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F42,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3136,7 +3136,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="17">
         <f>IF(E43&lt;C9,E43+1," ")</f>
-        <v>43177</v>
+        <v>43179</v>
       </c>
       <c r="F44" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F43,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3171,7 +3171,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="17">
         <f>IF(E44&lt;C9,E44+1," ")</f>
-        <v>43178</v>
+        <v>43180</v>
       </c>
       <c r="F45" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F44,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3206,7 +3206,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="17">
         <f>IF(E45&lt;C9,E45+1," ")</f>
-        <v>43179</v>
+        <v>43181</v>
       </c>
       <c r="F46" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F45,Data!A37:B285,2,FALSE)+C8,Data!D37:E285,2,FALSE)</f>
@@ -3241,7 +3241,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="17">
         <f>IF(E46&lt;C9,E46+1," ")</f>
-        <v>43180</v>
+        <v>43182</v>
       </c>
       <c r="F47" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F46,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3276,7 +3276,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="17">
         <f>IF(E47&lt;C9,E47+1," ")</f>
-        <v>43181</v>
+        <v>43183</v>
       </c>
       <c r="F48" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F47,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3311,7 +3311,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="17">
         <f>IF(E48&lt;C9,E48+1," ")</f>
-        <v>43182</v>
+        <v>43184</v>
       </c>
       <c r="F49" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F48,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3346,7 +3346,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="17">
         <f>IF(E49&lt;C9,E49+1," ")</f>
-        <v>43183</v>
+        <v>43185</v>
       </c>
       <c r="F50" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F49,Data!A41:B289,2,FALSE)+C8,Data!D41:E289,2,FALSE)</f>
@@ -3381,7 +3381,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="17">
         <f>IF(E50&lt;C9,E50+1," ")</f>
-        <v>43184</v>
+        <v>43186</v>
       </c>
       <c r="F51" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F50,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3416,7 +3416,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="17">
         <f>IF(E51&lt;C9,E51+1," ")</f>
-        <v>43185</v>
+        <v>43187</v>
       </c>
       <c r="F52" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F51,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3451,7 +3451,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="17">
         <f>IF(E52&lt;C9,E52+1," ")</f>
-        <v>43186</v>
+        <v>43188</v>
       </c>
       <c r="F53" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F52,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3486,7 +3486,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="17">
         <f>IF(E53&lt;C9,E53+1," ")</f>
-        <v>43187</v>
+        <v>43189</v>
       </c>
       <c r="F54" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F53,Data!A45:B293,2,FALSE)+C8,Data!D45:E293,2,FALSE)</f>
@@ -3521,7 +3521,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="17">
         <f>IF(E54&lt;C9,E54+1," ")</f>
-        <v>43188</v>
+        <v>43190</v>
       </c>
       <c r="F55" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F54,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3556,7 +3556,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="17">
         <f>IF(E55&lt;C9,E55+1," ")</f>
-        <v>43189</v>
+        <v>43191</v>
       </c>
       <c r="F56" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F55,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3591,7 +3591,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="17">
         <f>IF(E56&lt;C9,E56+1," ")</f>
-        <v>43190</v>
+        <v>43192</v>
       </c>
       <c r="F57" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F56,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3626,7 +3626,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="17">
         <f>IF(E57&lt;C9,E57+1," ")</f>
-        <v>43191</v>
+        <v>43193</v>
       </c>
       <c r="F58" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F57,Data!A49:B297,2,FALSE)+C8,Data!D49:E297,2,FALSE)</f>
@@ -3661,7 +3661,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="17">
         <f>IF(E58&lt;C9,E58+1," ")</f>
-        <v>43192</v>
+        <v>43194</v>
       </c>
       <c r="F59" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F58,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3696,7 +3696,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="17">
         <f>IF(E59&lt;C9,E59+1," ")</f>
-        <v>43193</v>
+        <v>43195</v>
       </c>
       <c r="F60" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F59,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3731,7 +3731,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="17">
         <f>IF(E60&lt;C9,E60+1," ")</f>
-        <v>43194</v>
+        <v>43196</v>
       </c>
       <c r="F61" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F60,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3766,7 +3766,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="17">
         <f>IF(E61&lt;C9,E61+1," ")</f>
-        <v>43195</v>
+        <v>43197</v>
       </c>
       <c r="F62" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F61,Data!A53:B301,2,FALSE)+C8,Data!D53:E301,2,FALSE)</f>
@@ -3801,7 +3801,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="17">
         <f>IF(E62&lt;C9,E62+1," ")</f>
-        <v>43196</v>
+        <v>43198</v>
       </c>
       <c r="F63" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F62,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3836,7 +3836,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="17">
         <f>IF(E63&lt;C9,E63+1," ")</f>
-        <v>43197</v>
+        <v>43199</v>
       </c>
       <c r="F64" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F63,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3871,7 +3871,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="17">
         <f>IF(E64&lt;C9,E64+1," ")</f>
-        <v>43198</v>
+        <v>43200</v>
       </c>
       <c r="F65" s="18" t="e">
         <f>VLOOKUP(VLOOKUP(F64,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3906,7 +3906,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="17">
         <f>IF(E65&lt;C9,E65+1," ")</f>
-        <v>43199</v>
+        <v>43201</v>
       </c>
       <c r="F66" s="14" t="e">
         <f>VLOOKUP(VLOOKUP(F65,Data!A57:B305,2,FALSE)+C8,Data!D57:E305,2,FALSE)</f>
@@ -3939,9 +3939,9 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="17">
+      <c r="E67" s="17" t="str">
         <f>IF(E66&lt;C9,E66+1," ")</f>
-        <v>43200</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F67" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F66,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
@@ -3974,9 +3974,9 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="17">
+      <c r="E68" s="17" t="str">
         <f>IF(E67&lt;C9,E67+1," ")</f>
-        <v>43201</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F68" s="26" t="e">
         <f>VLOOKUP(VLOOKUP(F67,Data!A61:B309,2,FALSE)+C8,Data!D61:E309,2,FALSE)</f>
